--- a/_GameData/ProductialMapGameData.xlsx
+++ b/_GameData/ProductialMapGameData.xlsx
@@ -1,30 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyeon2-400\Desktop\QTGameData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{863518C7-F0FA-4DB6-9BD1-5BC6F48AD82D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{837FBFE1-7192-41AA-9BA2-F29EE6505C12}"/>
   </bookViews>
   <sheets>
     <sheet name="ProductialMapGameData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,10 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -87,6 +98,30 @@
   </si>
   <si>
     <t>WeaponDropId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#드랍테이블1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#드랍테이블2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#드랍테이블3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#드랍테이블4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#드랍테이블5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#드랍테이블6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -101,8 +136,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +165,13 @@
       <sz val="11"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -168,7 +210,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -178,6 +220,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -185,7 +230,61 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="12">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -270,11 +369,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4">
-      <tableStyleElement type="wholeTable" dxfId="5"/>
-      <tableStyleElement type="headerRow" dxfId="4"/>
-      <tableStyleElement type="firstRowStripe" dxfId="3"/>
-      <tableStyleElement type="secondRowStripe" dxfId="2"/>
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{8E478AE9-DA3D-4CC2-B56C-39529B7D568D}">
+      <tableStyleElement type="wholeTable" dxfId="11"/>
+      <tableStyleElement type="headerRow" dxfId="10"/>
+      <tableStyleElement type="firstRowStripe" dxfId="9"/>
+      <tableStyleElement type="secondRowStripe" dxfId="8"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -288,22 +387,86 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="시트별저장버튼"/>
+      <sheetName val="아이템 가격 밸런싱"/>
+      <sheetName val="밸런스 시트"/>
+      <sheetName val="공용데이터(참고용)"/>
+      <sheetName val="CharacterGameData"/>
+      <sheetName val="CharacterAtkGameData"/>
+      <sheetName val="ProductialMapGameData"/>
+      <sheetName val="DropGameData"/>
+      <sheetName val="EnemyGameData"/>
+      <sheetName val="EnemyAtkGameData"/>
+      <sheetName val="ShootGameData"/>
+      <sheetName val="ProjectileGameData"/>
+      <sheetName val="ItemGameData"/>
+      <sheetName val="ItemEffectGameData"/>
+      <sheetName val="ItemResourceGameData"/>
+      <sheetName val="LocaleGameData"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표13" displayName="표13" ref="A2:L4" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A2:L4"/>
-  <tableColumns count="12">
-    <tableColumn id="1" name="index"/>
-    <tableColumn id="10" name="#이름" dataDxfId="0"/>
-    <tableColumn id="2" name="MaxRoomValue"/>
-    <tableColumn id="3" name="GoldShopProb"/>
-    <tableColumn id="4" name="HpShopProb"/>
-    <tableColumn id="5" name="EnemyHpIncreasePer"/>
-    <tableColumn id="12" name="ItemDropId"/>
-    <tableColumn id="6" name="HpShopDropId"/>
-    <tableColumn id="7" name="GoldShopDropId"/>
-    <tableColumn id="8" name="BossDropId"/>
-    <tableColumn id="9" name="ChoiceDropId"/>
-    <tableColumn id="11" name="WeaponDropId"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FD618ADF-E6EE-4160-9B15-E36BEA711740}" name="표13" displayName="표13" ref="A2:R4" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="A2:R4" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
+  <tableColumns count="18">
+    <tableColumn id="1" xr3:uid="{6EF5D711-26D2-49C3-917A-2802CD696206}" name="index"/>
+    <tableColumn id="10" xr3:uid="{5C723FFB-3FB0-433A-954B-B582B232D29A}" name="#이름" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{EA12FB41-D7F5-4F79-A998-19B7498396ED}" name="MaxRoomValue"/>
+    <tableColumn id="3" xr3:uid="{C872541B-6105-4A68-ADE6-93C91154BFF8}" name="GoldShopProb"/>
+    <tableColumn id="4" xr3:uid="{F1FD7A33-9837-4FAA-BC15-D5A6D2E552FA}" name="HpShopProb"/>
+    <tableColumn id="5" xr3:uid="{79E4B55E-47E7-40AF-B9D5-589DD611DC15}" name="EnemyHpIncreasePer"/>
+    <tableColumn id="12" xr3:uid="{4B9E8B38-03DE-4F4F-87E6-88DD389CD911}" name="ItemDropId"/>
+    <tableColumn id="6" xr3:uid="{49A9C8F0-36A6-4312-836E-1873B5789448}" name="HpShopDropId"/>
+    <tableColumn id="7" xr3:uid="{15309260-5DF9-4DEF-B274-3E6BE30E532D}" name="GoldShopDropId"/>
+    <tableColumn id="8" xr3:uid="{37BD09C6-F710-4F00-B516-55CEA63E1672}" name="BossDropId"/>
+    <tableColumn id="9" xr3:uid="{748AF7B0-D4CA-4263-9070-31D4080691A0}" name="ChoiceDropId"/>
+    <tableColumn id="11" xr3:uid="{073A335B-376D-4205-9BCA-A2AD6026F7E7}" name="WeaponDropId"/>
+    <tableColumn id="13" xr3:uid="{E402A5F2-699A-4260-A7C4-E0DBF3EFBB49}" name="#드랍테이블1" dataDxfId="5">
+      <calculatedColumnFormula>INDEX([1]!표12['#메모],MATCH(표13[[#This Row],[ItemDropId]],[1]!표12[Index],0))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{E7C38C14-4AF8-41BB-9742-E1D4039ECAE1}" name="#드랍테이블2" dataDxfId="4">
+      <calculatedColumnFormula>INDEX([1]!표12['#메모],MATCH(표13[[#This Row],[HpShopDropId]],[1]!표12[Index],0))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" xr3:uid="{65788F26-9235-481A-AEEE-2AEEC4317418}" name="#드랍테이블3" dataDxfId="3">
+      <calculatedColumnFormula>INDEX([1]!표12['#메모],MATCH(표13[[#This Row],[GoldShopDropId]],[1]!표12[Index],0))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" xr3:uid="{272AA304-3EF8-4804-B0DD-96F93736C54D}" name="#드랍테이블4" dataDxfId="2">
+      <calculatedColumnFormula>INDEX([1]!표12['#메모],MATCH(표13[[#This Row],[BossDropId]],[1]!표12[Index],0))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="17" xr3:uid="{07F35104-9482-4ED5-A2D0-90D1AD1D61AD}" name="#드랍테이블5" dataDxfId="1">
+      <calculatedColumnFormula>INDEX([1]!표12['#메모],MATCH(표13[[#This Row],[ChoiceDropId]],[1]!표12[Index],0))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="18" xr3:uid="{85AE4593-5BFB-47FF-9880-896458E38D97}" name="#드랍테이블6" dataDxfId="0">
+      <calculatedColumnFormula>INDEX([1]!표12['#메모],MATCH(표13[[#This Row],[WeaponDropId]],[1]!표12[Index],0))</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -326,7 +489,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -338,7 +501,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -385,6 +548,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -420,6 +600,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -571,14 +768,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BA6D462-2289-446D-8196-D96264EDAC1C}">
   <sheetPr codeName="Sheet8">
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -589,14 +786,20 @@
     <col min="4" max="4" width="16.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -613,7 +816,7 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
@@ -634,50 +837,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>12</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>13</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>14</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="N2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>800</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>16</v>
+      <c r="B3" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -709,13 +930,37 @@
       <c r="L3">
         <v>9005</v>
       </c>
+      <c r="M3" s="4" t="str">
+        <f>INDEX([1]!표12['#메모],MATCH(표13[[#This Row],[ItemDropId]],[1]!표12[Index],0))</f>
+        <v>1층_아이템보상</v>
+      </c>
+      <c r="N3" s="4" t="str">
+        <f>INDEX([1]!표12['#메모],MATCH(표13[[#This Row],[HpShopDropId]],[1]!표12[Index],0))</f>
+        <v>1층_Hp상점_슬롯</v>
+      </c>
+      <c r="O3" s="4" t="str">
+        <f>INDEX([1]!표12['#메모],MATCH(표13[[#This Row],[GoldShopDropId]],[1]!표12[Index],0))</f>
+        <v>1층_골드상점_슬롯</v>
+      </c>
+      <c r="P3" s="4" t="str">
+        <f>INDEX([1]!표12['#메모],MATCH(표13[[#This Row],[BossDropId]],[1]!표12[Index],0))</f>
+        <v>1층_선택지</v>
+      </c>
+      <c r="Q3" s="4" t="str">
+        <f>INDEX([1]!표12['#메모],MATCH(표13[[#This Row],[ChoiceDropId]],[1]!표12[Index],0))</f>
+        <v>1층_보스</v>
+      </c>
+      <c r="R3" s="4" t="str">
+        <f>INDEX([1]!표12['#메모],MATCH(표13[[#This Row],[WeaponDropId]],[1]!표12[Index],0))</f>
+        <v>1층_시작무기선택</v>
+      </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>801</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>17</v>
+      <c r="B4" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C4">
         <v>12</v>
@@ -746,6 +991,30 @@
       </c>
       <c r="L4">
         <v>9105</v>
+      </c>
+      <c r="M4" s="4" t="str">
+        <f>INDEX([1]!표12['#메모],MATCH(표13[[#This Row],[ItemDropId]],[1]!표12[Index],0))</f>
+        <v>2층_아이템보상</v>
+      </c>
+      <c r="N4" s="4" t="str">
+        <f>INDEX([1]!표12['#메모],MATCH(표13[[#This Row],[HpShopDropId]],[1]!표12[Index],0))</f>
+        <v>2층_Hp상점_슬롯</v>
+      </c>
+      <c r="O4" s="4" t="str">
+        <f>INDEX([1]!표12['#메모],MATCH(표13[[#This Row],[GoldShopDropId]],[1]!표12[Index],0))</f>
+        <v>2층_골드상점_슬롯</v>
+      </c>
+      <c r="P4" s="4" t="str">
+        <f>INDEX([1]!표12['#메모],MATCH(표13[[#This Row],[BossDropId]],[1]!표12[Index],0))</f>
+        <v>2층_선택지</v>
+      </c>
+      <c r="Q4" s="4" t="str">
+        <f>INDEX([1]!표12['#메모],MATCH(표13[[#This Row],[ChoiceDropId]],[1]!표12[Index],0))</f>
+        <v>2층_보스</v>
+      </c>
+      <c r="R4" s="4" t="str">
+        <f>INDEX([1]!표12['#메모],MATCH(표13[[#This Row],[WeaponDropId]],[1]!표12[Index],0))</f>
+        <v>2층_시작무기선택</v>
       </c>
     </row>
   </sheetData>

--- a/_GameData/ProductialMapGameData.xlsx
+++ b/_GameData/ProductialMapGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{863518C7-F0FA-4DB6-9BD1-5BC6F48AD82D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B8A1932-313D-431F-A263-8D04A055F9D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{837FBFE1-7192-41AA-9BA2-F29EE6505C12}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9FD2BA2B-F135-4181-92D7-8345E713DC09}"/>
   </bookViews>
   <sheets>
     <sheet name="ProductialMapGameData" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,7 +53,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>index</t>
+    <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -369,7 +369,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{8E478AE9-DA3D-4CC2-B56C-39529B7D568D}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{5077215D-D2CD-4F41-9953-1EBA265B4688}">
       <tableStyleElement type="wholeTable" dxfId="11"/>
       <tableStyleElement type="headerRow" dxfId="10"/>
       <tableStyleElement type="firstRowStripe" dxfId="9"/>
@@ -434,37 +434,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FD618ADF-E6EE-4160-9B15-E36BEA711740}" name="표13" displayName="표13" ref="A2:R4" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{17286D31-24E4-4D82-9803-938271FCA26A}" name="표13" displayName="표13" ref="A2:R4" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="A2:R4" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{6EF5D711-26D2-49C3-917A-2802CD696206}" name="index"/>
-    <tableColumn id="10" xr3:uid="{5C723FFB-3FB0-433A-954B-B582B232D29A}" name="#이름" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{EA12FB41-D7F5-4F79-A998-19B7498396ED}" name="MaxRoomValue"/>
-    <tableColumn id="3" xr3:uid="{C872541B-6105-4A68-ADE6-93C91154BFF8}" name="GoldShopProb"/>
-    <tableColumn id="4" xr3:uid="{F1FD7A33-9837-4FAA-BC15-D5A6D2E552FA}" name="HpShopProb"/>
-    <tableColumn id="5" xr3:uid="{79E4B55E-47E7-40AF-B9D5-589DD611DC15}" name="EnemyHpIncreasePer"/>
-    <tableColumn id="12" xr3:uid="{4B9E8B38-03DE-4F4F-87E6-88DD389CD911}" name="ItemDropId"/>
-    <tableColumn id="6" xr3:uid="{49A9C8F0-36A6-4312-836E-1873B5789448}" name="HpShopDropId"/>
-    <tableColumn id="7" xr3:uid="{15309260-5DF9-4DEF-B274-3E6BE30E532D}" name="GoldShopDropId"/>
-    <tableColumn id="8" xr3:uid="{37BD09C6-F710-4F00-B516-55CEA63E1672}" name="BossDropId"/>
-    <tableColumn id="9" xr3:uid="{748AF7B0-D4CA-4263-9070-31D4080691A0}" name="ChoiceDropId"/>
-    <tableColumn id="11" xr3:uid="{073A335B-376D-4205-9BCA-A2AD6026F7E7}" name="WeaponDropId"/>
-    <tableColumn id="13" xr3:uid="{E402A5F2-699A-4260-A7C4-E0DBF3EFBB49}" name="#드랍테이블1" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{3E9B99B9-C4A9-4A92-B8ED-2DB6D2A09550}" name="Index"/>
+    <tableColumn id="10" xr3:uid="{EC9F3B8F-30F8-42BC-BD10-2DA9358AC074}" name="#이름" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{4D2FF37A-735E-4CBB-9F4B-737501AA4BD8}" name="MaxRoomValue"/>
+    <tableColumn id="3" xr3:uid="{7CCC7C47-8CC6-42DA-9E98-C12ABDE629FB}" name="GoldShopProb"/>
+    <tableColumn id="4" xr3:uid="{CBCB089A-2989-4885-8C90-60FD7F56BC72}" name="HpShopProb"/>
+    <tableColumn id="5" xr3:uid="{D05B7FD4-D591-461B-A9E4-26E24AD285B4}" name="EnemyHpIncreasePer"/>
+    <tableColumn id="12" xr3:uid="{106A508D-9E01-4A19-9F01-C36713CE6B60}" name="ItemDropId"/>
+    <tableColumn id="6" xr3:uid="{33BF7A49-F493-4F5A-A75D-2C43FB3877F8}" name="HpShopDropId"/>
+    <tableColumn id="7" xr3:uid="{5A488E09-5EC9-43B8-BAEC-F5070BC3BC13}" name="GoldShopDropId"/>
+    <tableColumn id="8" xr3:uid="{89A9DB4F-0FA9-4B3F-AFF7-EBCF01FEB1C7}" name="BossDropId"/>
+    <tableColumn id="9" xr3:uid="{F36C48AE-947A-4EE5-B597-8033A3AB5D09}" name="ChoiceDropId"/>
+    <tableColumn id="11" xr3:uid="{15BD74FB-E323-469C-94AD-951A8A232627}" name="WeaponDropId"/>
+    <tableColumn id="13" xr3:uid="{933AA69B-27AF-4DC5-AF41-E79D3647AF2C}" name="#드랍테이블1" dataDxfId="5">
       <calculatedColumnFormula>INDEX([1]!표12['#메모],MATCH(표13[[#This Row],[ItemDropId]],[1]!표12[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{E7C38C14-4AF8-41BB-9742-E1D4039ECAE1}" name="#드랍테이블2" dataDxfId="4">
+    <tableColumn id="14" xr3:uid="{F3CAE1D2-063F-415D-855D-92C77D8C522C}" name="#드랍테이블2" dataDxfId="4">
       <calculatedColumnFormula>INDEX([1]!표12['#메모],MATCH(표13[[#This Row],[HpShopDropId]],[1]!표12[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{65788F26-9235-481A-AEEE-2AEEC4317418}" name="#드랍테이블3" dataDxfId="3">
+    <tableColumn id="15" xr3:uid="{7044160E-4D6C-43E2-9F24-750E73D28C40}" name="#드랍테이블3" dataDxfId="3">
       <calculatedColumnFormula>INDEX([1]!표12['#메모],MATCH(표13[[#This Row],[GoldShopDropId]],[1]!표12[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{272AA304-3EF8-4804-B0DD-96F93736C54D}" name="#드랍테이블4" dataDxfId="2">
+    <tableColumn id="16" xr3:uid="{0D57D498-E527-454D-AE3E-07B03CF56FE1}" name="#드랍테이블4" dataDxfId="2">
       <calculatedColumnFormula>INDEX([1]!표12['#메모],MATCH(표13[[#This Row],[BossDropId]],[1]!표12[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{07F35104-9482-4ED5-A2D0-90D1AD1D61AD}" name="#드랍테이블5" dataDxfId="1">
+    <tableColumn id="17" xr3:uid="{84146148-836F-4A63-9939-4D637875B9EA}" name="#드랍테이블5" dataDxfId="1">
       <calculatedColumnFormula>INDEX([1]!표12['#메모],MATCH(표13[[#This Row],[ChoiceDropId]],[1]!표12[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{85AE4593-5BFB-47FF-9880-896458E38D97}" name="#드랍테이블6" dataDxfId="0">
+    <tableColumn id="18" xr3:uid="{2E9445E0-3CBC-45FE-853C-799D62A9C546}" name="#드랍테이블6" dataDxfId="0">
       <calculatedColumnFormula>INDEX([1]!표12['#메모],MATCH(표13[[#This Row],[WeaponDropId]],[1]!표12[Index],0))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -768,14 +768,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BA6D462-2289-446D-8196-D96264EDAC1C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A639EB1-E380-4557-A610-6C9FB7978841}">
   <sheetPr codeName="Sheet8">
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -836,6 +836,24 @@
       <c r="L1" t="s">
         <v>0</v>
       </c>
+      <c r="M1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">

--- a/_GameData/ProductialMapGameData.xlsx
+++ b/_GameData/ProductialMapGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B8A1932-313D-431F-A263-8D04A055F9D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3208D44-A6D9-412A-B899-A0E6252EB0AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9FD2BA2B-F135-4181-92D7-8345E713DC09}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5593E2EC-D5EA-4040-8360-F9D529AC5415}"/>
   </bookViews>
   <sheets>
     <sheet name="ProductialMapGameData" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -369,7 +369,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{5077215D-D2CD-4F41-9953-1EBA265B4688}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{407AD4F6-5DFD-4A4B-96F5-40C91A2BAFB3}">
       <tableStyleElement type="wholeTable" dxfId="11"/>
       <tableStyleElement type="headerRow" dxfId="10"/>
       <tableStyleElement type="firstRowStripe" dxfId="9"/>
@@ -395,8 +395,8 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="시트별저장버튼"/>
-      <sheetName val="아이템 가격 밸런싱"/>
-      <sheetName val="밸런스 시트"/>
+      <sheetName val="아이템 밸런스 시트"/>
+      <sheetName val="전투 밸런스 시트"/>
       <sheetName val="공용데이터(참고용)"/>
       <sheetName val="CharacterGameData"/>
       <sheetName val="CharacterAtkGameData"/>
@@ -434,37 +434,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{17286D31-24E4-4D82-9803-938271FCA26A}" name="표13" displayName="표13" ref="A2:R4" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="A2:R4" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{646C1F06-46BC-47F3-BE9B-E8AED6E2A60A}" name="표13" displayName="표13" ref="B2:S4" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="B2:S4" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{3E9B99B9-C4A9-4A92-B8ED-2DB6D2A09550}" name="Index"/>
-    <tableColumn id="10" xr3:uid="{EC9F3B8F-30F8-42BC-BD10-2DA9358AC074}" name="#이름" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{4D2FF37A-735E-4CBB-9F4B-737501AA4BD8}" name="MaxRoomValue"/>
-    <tableColumn id="3" xr3:uid="{7CCC7C47-8CC6-42DA-9E98-C12ABDE629FB}" name="GoldShopProb"/>
-    <tableColumn id="4" xr3:uid="{CBCB089A-2989-4885-8C90-60FD7F56BC72}" name="HpShopProb"/>
-    <tableColumn id="5" xr3:uid="{D05B7FD4-D591-461B-A9E4-26E24AD285B4}" name="EnemyHpIncreasePer"/>
-    <tableColumn id="12" xr3:uid="{106A508D-9E01-4A19-9F01-C36713CE6B60}" name="ItemDropId"/>
-    <tableColumn id="6" xr3:uid="{33BF7A49-F493-4F5A-A75D-2C43FB3877F8}" name="HpShopDropId"/>
-    <tableColumn id="7" xr3:uid="{5A488E09-5EC9-43B8-BAEC-F5070BC3BC13}" name="GoldShopDropId"/>
-    <tableColumn id="8" xr3:uid="{89A9DB4F-0FA9-4B3F-AFF7-EBCF01FEB1C7}" name="BossDropId"/>
-    <tableColumn id="9" xr3:uid="{F36C48AE-947A-4EE5-B597-8033A3AB5D09}" name="ChoiceDropId"/>
-    <tableColumn id="11" xr3:uid="{15BD74FB-E323-469C-94AD-951A8A232627}" name="WeaponDropId"/>
-    <tableColumn id="13" xr3:uid="{933AA69B-27AF-4DC5-AF41-E79D3647AF2C}" name="#드랍테이블1" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{4DC6F75D-9151-4D82-9007-D759B5B31767}" name="Index"/>
+    <tableColumn id="10" xr3:uid="{53A742DB-1FFC-4974-8E3B-CEFFEC47FE64}" name="#이름" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{35065840-2B2E-42A3-92C9-679F2A994BB6}" name="MaxRoomValue"/>
+    <tableColumn id="3" xr3:uid="{7D5DAA45-F58C-4B3C-9774-FD35915930FA}" name="GoldShopProb"/>
+    <tableColumn id="4" xr3:uid="{06F4EA91-92B2-4FBC-A1F7-2ED6B2ADAB70}" name="HpShopProb"/>
+    <tableColumn id="5" xr3:uid="{31ED12BC-BDEB-4CD5-8920-A2D953B1C00D}" name="EnemyHpIncreasePer"/>
+    <tableColumn id="12" xr3:uid="{899E4733-B9A8-4D15-B432-56207B5FA9F4}" name="ItemDropId"/>
+    <tableColumn id="6" xr3:uid="{1C982523-5CFF-4BC8-BAC3-4675E44689A3}" name="HpShopDropId"/>
+    <tableColumn id="7" xr3:uid="{30015ED8-31CB-455F-9048-9B2A27D19D20}" name="GoldShopDropId"/>
+    <tableColumn id="8" xr3:uid="{339A5470-8682-4BF9-9171-B059641A7D7C}" name="BossDropId"/>
+    <tableColumn id="9" xr3:uid="{C20937EF-27CE-4F68-A83D-86326DA15875}" name="ChoiceDropId"/>
+    <tableColumn id="11" xr3:uid="{2F0EE06B-5B77-4130-8C66-24869BF7E428}" name="WeaponDropId"/>
+    <tableColumn id="13" xr3:uid="{59EEE951-BEAE-4FBA-A88B-E56D33DFD9EA}" name="#드랍테이블1" dataDxfId="5">
       <calculatedColumnFormula>INDEX([1]!표12['#메모],MATCH(표13[[#This Row],[ItemDropId]],[1]!표12[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{F3CAE1D2-063F-415D-855D-92C77D8C522C}" name="#드랍테이블2" dataDxfId="4">
+    <tableColumn id="14" xr3:uid="{922DB3E7-1CF5-4D1C-894E-98574BC0B364}" name="#드랍테이블2" dataDxfId="4">
       <calculatedColumnFormula>INDEX([1]!표12['#메모],MATCH(표13[[#This Row],[HpShopDropId]],[1]!표12[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{7044160E-4D6C-43E2-9F24-750E73D28C40}" name="#드랍테이블3" dataDxfId="3">
+    <tableColumn id="15" xr3:uid="{CB1E5D23-C75D-433E-9C8E-429C0E23DF16}" name="#드랍테이블3" dataDxfId="3">
       <calculatedColumnFormula>INDEX([1]!표12['#메모],MATCH(표13[[#This Row],[GoldShopDropId]],[1]!표12[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{0D57D498-E527-454D-AE3E-07B03CF56FE1}" name="#드랍테이블4" dataDxfId="2">
+    <tableColumn id="16" xr3:uid="{6EFED82C-7E20-4400-A8DE-C4CAABDA1243}" name="#드랍테이블4" dataDxfId="2">
       <calculatedColumnFormula>INDEX([1]!표12['#메모],MATCH(표13[[#This Row],[BossDropId]],[1]!표12[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{84146148-836F-4A63-9939-4D637875B9EA}" name="#드랍테이블5" dataDxfId="1">
+    <tableColumn id="17" xr3:uid="{55F249E2-4115-4E2A-8D1A-F3DE1DEB64AD}" name="#드랍테이블5" dataDxfId="1">
       <calculatedColumnFormula>INDEX([1]!표12['#메모],MATCH(표13[[#This Row],[ChoiceDropId]],[1]!표12[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{2E9445E0-3CBC-45FE-853C-799D62A9C546}" name="#드랍테이블6" dataDxfId="0">
+    <tableColumn id="18" xr3:uid="{91B1D9AC-112F-4E95-8618-BD6D1B7A5B40}" name="#드랍테이블6" dataDxfId="0">
       <calculatedColumnFormula>INDEX([1]!표12['#메모],MATCH(표13[[#This Row],[WeaponDropId]],[1]!표12[Index],0))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -768,49 +768,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A639EB1-E380-4557-A610-6C9FB7978841}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D31228A-232D-4370-9F5E-0E2962AD7A23}">
   <sheetPr codeName="Sheet8">
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:E3"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" t="s">
+    <row r="1" spans="1:19">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -819,7 +816,7 @@
         <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H1" t="s">
         <v>0</v>
@@ -837,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="M1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N1" t="s">
         <v>1</v>
@@ -854,183 +851,189 @@
       <c r="R1" t="s">
         <v>1</v>
       </c>
+      <c r="S1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:18">
-      <c r="A2" t="s">
+    <row r="2" spans="1:19">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>11</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>12</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>13</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
-      <c r="A3">
+    <row r="3" spans="1:19">
+      <c r="B3">
         <v>800</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>10</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.9</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.1</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>9000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>9001</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>9002</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>9003</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>9004</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>9005</v>
       </c>
-      <c r="M3" s="4" t="str">
+      <c r="N3" s="4" t="str">
         <f>INDEX([1]!표12['#메모],MATCH(표13[[#This Row],[ItemDropId]],[1]!표12[Index],0))</f>
         <v>1층_아이템보상</v>
       </c>
-      <c r="N3" s="4" t="str">
+      <c r="O3" s="4" t="str">
         <f>INDEX([1]!표12['#메모],MATCH(표13[[#This Row],[HpShopDropId]],[1]!표12[Index],0))</f>
         <v>1층_Hp상점_슬롯</v>
       </c>
-      <c r="O3" s="4" t="str">
+      <c r="P3" s="4" t="str">
         <f>INDEX([1]!표12['#메모],MATCH(표13[[#This Row],[GoldShopDropId]],[1]!표12[Index],0))</f>
         <v>1층_골드상점_슬롯</v>
       </c>
-      <c r="P3" s="4" t="str">
+      <c r="Q3" s="4" t="str">
         <f>INDEX([1]!표12['#메모],MATCH(표13[[#This Row],[BossDropId]],[1]!표12[Index],0))</f>
         <v>1층_선택지</v>
       </c>
-      <c r="Q3" s="4" t="str">
+      <c r="R3" s="4" t="str">
         <f>INDEX([1]!표12['#메모],MATCH(표13[[#This Row],[ChoiceDropId]],[1]!표12[Index],0))</f>
         <v>1층_보스</v>
       </c>
-      <c r="R3" s="4" t="str">
+      <c r="S3" s="4" t="str">
         <f>INDEX([1]!표12['#메모],MATCH(표13[[#This Row],[WeaponDropId]],[1]!표12[Index],0))</f>
         <v>1층_시작무기선택</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
-      <c r="A4">
+    <row r="4" spans="1:19">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
         <v>801</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>12</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.1</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.9</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1.2</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>9100</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>9101</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>9102</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>9103</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>9104</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>9105</v>
       </c>
-      <c r="M4" s="4" t="str">
+      <c r="N4" s="4" t="str">
         <f>INDEX([1]!표12['#메모],MATCH(표13[[#This Row],[ItemDropId]],[1]!표12[Index],0))</f>
         <v>2층_아이템보상</v>
       </c>
-      <c r="N4" s="4" t="str">
+      <c r="O4" s="4" t="str">
         <f>INDEX([1]!표12['#메모],MATCH(표13[[#This Row],[HpShopDropId]],[1]!표12[Index],0))</f>
         <v>2층_Hp상점_슬롯</v>
       </c>
-      <c r="O4" s="4" t="str">
+      <c r="P4" s="4" t="str">
         <f>INDEX([1]!표12['#메모],MATCH(표13[[#This Row],[GoldShopDropId]],[1]!표12[Index],0))</f>
         <v>2층_골드상점_슬롯</v>
       </c>
-      <c r="P4" s="4" t="str">
+      <c r="Q4" s="4" t="str">
         <f>INDEX([1]!표12['#메모],MATCH(표13[[#This Row],[BossDropId]],[1]!표12[Index],0))</f>
         <v>2층_선택지</v>
       </c>
-      <c r="Q4" s="4" t="str">
+      <c r="R4" s="4" t="str">
         <f>INDEX([1]!표12['#메모],MATCH(표13[[#This Row],[ChoiceDropId]],[1]!표12[Index],0))</f>
         <v>2층_보스</v>
       </c>
-      <c r="R4" s="4" t="str">
+      <c r="S4" s="4" t="str">
         <f>INDEX([1]!표12['#메모],MATCH(표13[[#This Row],[WeaponDropId]],[1]!표12[Index],0))</f>
         <v>2층_시작무기선택</v>
       </c>

--- a/_GameData/ProductialMapGameData.xlsx
+++ b/_GameData/ProductialMapGameData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3208D44-A6D9-412A-B899-A0E6252EB0AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC954AB6-0323-4F8A-9905-CB4936138D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5593E2EC-D5EA-4040-8360-F9D529AC5415}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B4F4CE9B-2BD4-440D-B4CC-8D46DC7085AD}"/>
   </bookViews>
   <sheets>
     <sheet name="ProductialMapGameData" sheetId="1" r:id="rId1"/>
@@ -369,7 +369,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{407AD4F6-5DFD-4A4B-96F5-40C91A2BAFB3}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{76A9104C-FD0E-4307-B3E2-C40D121AAEB6}">
       <tableStyleElement type="wholeTable" dxfId="11"/>
       <tableStyleElement type="headerRow" dxfId="10"/>
       <tableStyleElement type="firstRowStripe" dxfId="9"/>
@@ -434,38 +434,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{646C1F06-46BC-47F3-BE9B-E8AED6E2A60A}" name="표13" displayName="표13" ref="B2:S4" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{660E5FC2-2B23-4FCA-BE0E-046C96F50A09}" name="ProductialTable" displayName="ProductialTable" ref="B2:S4" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="B2:S4" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{4DC6F75D-9151-4D82-9007-D759B5B31767}" name="Index"/>
-    <tableColumn id="10" xr3:uid="{53A742DB-1FFC-4974-8E3B-CEFFEC47FE64}" name="#이름" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{35065840-2B2E-42A3-92C9-679F2A994BB6}" name="MaxRoomValue"/>
-    <tableColumn id="3" xr3:uid="{7D5DAA45-F58C-4B3C-9774-FD35915930FA}" name="GoldShopProb"/>
-    <tableColumn id="4" xr3:uid="{06F4EA91-92B2-4FBC-A1F7-2ED6B2ADAB70}" name="HpShopProb"/>
-    <tableColumn id="5" xr3:uid="{31ED12BC-BDEB-4CD5-8920-A2D953B1C00D}" name="EnemyHpIncreasePer"/>
-    <tableColumn id="12" xr3:uid="{899E4733-B9A8-4D15-B432-56207B5FA9F4}" name="ItemDropId"/>
-    <tableColumn id="6" xr3:uid="{1C982523-5CFF-4BC8-BAC3-4675E44689A3}" name="HpShopDropId"/>
-    <tableColumn id="7" xr3:uid="{30015ED8-31CB-455F-9048-9B2A27D19D20}" name="GoldShopDropId"/>
-    <tableColumn id="8" xr3:uid="{339A5470-8682-4BF9-9171-B059641A7D7C}" name="BossDropId"/>
-    <tableColumn id="9" xr3:uid="{C20937EF-27CE-4F68-A83D-86326DA15875}" name="ChoiceDropId"/>
-    <tableColumn id="11" xr3:uid="{2F0EE06B-5B77-4130-8C66-24869BF7E428}" name="WeaponDropId"/>
-    <tableColumn id="13" xr3:uid="{59EEE951-BEAE-4FBA-A88B-E56D33DFD9EA}" name="#드랍테이블1" dataDxfId="5">
-      <calculatedColumnFormula>INDEX([1]!표12['#메모],MATCH(표13[[#This Row],[ItemDropId]],[1]!표12[Index],0))</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{EBBB1DBE-81D3-413B-8583-9540D54A819C}" name="Index"/>
+    <tableColumn id="10" xr3:uid="{638E2D10-69C9-4964-84A7-7B3F953E7D1C}" name="#이름" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{563527D1-2CF4-4727-83FD-4DBAE696F9D2}" name="MaxRoomValue"/>
+    <tableColumn id="3" xr3:uid="{BED377DA-CF7B-4521-9BA5-19814C5A2ACE}" name="GoldShopProb"/>
+    <tableColumn id="4" xr3:uid="{F9D03E78-F92D-4A9A-AB84-8124A18CE62A}" name="HpShopProb"/>
+    <tableColumn id="5" xr3:uid="{8C6EB549-A134-4D98-80D8-4498BE2C11A5}" name="EnemyHpIncreasePer"/>
+    <tableColumn id="12" xr3:uid="{2C0CF156-2E1A-479A-AD39-2E44D6532658}" name="ItemDropId"/>
+    <tableColumn id="6" xr3:uid="{9AD7819C-AAFA-42F7-82F5-02B5D9EBC8F7}" name="HpShopDropId"/>
+    <tableColumn id="7" xr3:uid="{AFDFF058-DCE0-4A9B-82B9-0A837D2C2A45}" name="GoldShopDropId"/>
+    <tableColumn id="8" xr3:uid="{F31F209B-E7C8-4665-8DC6-88D6C253F2AF}" name="BossDropId"/>
+    <tableColumn id="9" xr3:uid="{AC572BD6-237C-44EA-B825-9AD5175B288D}" name="ChoiceDropId"/>
+    <tableColumn id="11" xr3:uid="{DDA9A703-9BBE-44B7-8AB8-F30F6FB30D53}" name="WeaponDropId"/>
+    <tableColumn id="13" xr3:uid="{7C71E6FD-5716-4513-8E57-813CE08B7100}" name="#드랍테이블1" dataDxfId="5">
+      <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[ItemDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{922DB3E7-1CF5-4D1C-894E-98574BC0B364}" name="#드랍테이블2" dataDxfId="4">
-      <calculatedColumnFormula>INDEX([1]!표12['#메모],MATCH(표13[[#This Row],[HpShopDropId]],[1]!표12[Index],0))</calculatedColumnFormula>
+    <tableColumn id="14" xr3:uid="{4246536D-F51D-40E0-852A-428D85826FC3}" name="#드랍테이블2" dataDxfId="4">
+      <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[HpShopDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{CB1E5D23-C75D-433E-9C8E-429C0E23DF16}" name="#드랍테이블3" dataDxfId="3">
-      <calculatedColumnFormula>INDEX([1]!표12['#메모],MATCH(표13[[#This Row],[GoldShopDropId]],[1]!표12[Index],0))</calculatedColumnFormula>
+    <tableColumn id="15" xr3:uid="{D6C052B8-442D-42D4-B462-EB43FD15D71F}" name="#드랍테이블3" dataDxfId="3">
+      <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[GoldShopDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{6EFED82C-7E20-4400-A8DE-C4CAABDA1243}" name="#드랍테이블4" dataDxfId="2">
-      <calculatedColumnFormula>INDEX([1]!표12['#메모],MATCH(표13[[#This Row],[BossDropId]],[1]!표12[Index],0))</calculatedColumnFormula>
+    <tableColumn id="16" xr3:uid="{7DCFF0F5-ED8D-454C-AD0B-4528BF28DE11}" name="#드랍테이블4" dataDxfId="2">
+      <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[BossDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{55F249E2-4115-4E2A-8D1A-F3DE1DEB64AD}" name="#드랍테이블5" dataDxfId="1">
-      <calculatedColumnFormula>INDEX([1]!표12['#메모],MATCH(표13[[#This Row],[ChoiceDropId]],[1]!표12[Index],0))</calculatedColumnFormula>
+    <tableColumn id="17" xr3:uid="{7AF779CA-F69B-4DE8-8DE1-93780FCE0309}" name="#드랍테이블5" dataDxfId="1">
+      <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[ChoiceDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{91B1D9AC-112F-4E95-8618-BD6D1B7A5B40}" name="#드랍테이블6" dataDxfId="0">
-      <calculatedColumnFormula>INDEX([1]!표12['#메모],MATCH(표13[[#This Row],[WeaponDropId]],[1]!표12[Index],0))</calculatedColumnFormula>
+    <tableColumn id="18" xr3:uid="{5DAA5574-752D-45DB-8636-01D17CCAA592}" name="#드랍테이블6" dataDxfId="0">
+      <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[WeaponDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -768,14 +768,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D31228A-232D-4370-9F5E-0E2962AD7A23}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22F69094-471E-4B82-803A-96276A987C6F}">
   <sheetPr codeName="Sheet8">
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -949,27 +949,27 @@
         <v>9005</v>
       </c>
       <c r="N3" s="4" t="str">
-        <f>INDEX([1]!표12['#메모],MATCH(표13[[#This Row],[ItemDropId]],[1]!표12[Index],0))</f>
+        <f>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[ItemDropId]],[1]!DropTable[Index],0))</f>
         <v>1층_아이템보상</v>
       </c>
       <c r="O3" s="4" t="str">
-        <f>INDEX([1]!표12['#메모],MATCH(표13[[#This Row],[HpShopDropId]],[1]!표12[Index],0))</f>
+        <f>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[HpShopDropId]],[1]!DropTable[Index],0))</f>
         <v>1층_Hp상점_슬롯</v>
       </c>
       <c r="P3" s="4" t="str">
-        <f>INDEX([1]!표12['#메모],MATCH(표13[[#This Row],[GoldShopDropId]],[1]!표12[Index],0))</f>
+        <f>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[GoldShopDropId]],[1]!DropTable[Index],0))</f>
         <v>1층_골드상점_슬롯</v>
       </c>
       <c r="Q3" s="4" t="str">
-        <f>INDEX([1]!표12['#메모],MATCH(표13[[#This Row],[BossDropId]],[1]!표12[Index],0))</f>
+        <f>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[BossDropId]],[1]!DropTable[Index],0))</f>
         <v>1층_선택지</v>
       </c>
       <c r="R3" s="4" t="str">
-        <f>INDEX([1]!표12['#메모],MATCH(표13[[#This Row],[ChoiceDropId]],[1]!표12[Index],0))</f>
+        <f>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[ChoiceDropId]],[1]!DropTable[Index],0))</f>
         <v>1층_보스</v>
       </c>
       <c r="S3" s="4" t="str">
-        <f>INDEX([1]!표12['#메모],MATCH(표13[[#This Row],[WeaponDropId]],[1]!표12[Index],0))</f>
+        <f>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[WeaponDropId]],[1]!DropTable[Index],0))</f>
         <v>1층_시작무기선택</v>
       </c>
     </row>
@@ -1014,27 +1014,27 @@
         <v>9105</v>
       </c>
       <c r="N4" s="4" t="str">
-        <f>INDEX([1]!표12['#메모],MATCH(표13[[#This Row],[ItemDropId]],[1]!표12[Index],0))</f>
+        <f>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[ItemDropId]],[1]!DropTable[Index],0))</f>
         <v>2층_아이템보상</v>
       </c>
       <c r="O4" s="4" t="str">
-        <f>INDEX([1]!표12['#메모],MATCH(표13[[#This Row],[HpShopDropId]],[1]!표12[Index],0))</f>
+        <f>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[HpShopDropId]],[1]!DropTable[Index],0))</f>
         <v>2층_Hp상점_슬롯</v>
       </c>
       <c r="P4" s="4" t="str">
-        <f>INDEX([1]!표12['#메모],MATCH(표13[[#This Row],[GoldShopDropId]],[1]!표12[Index],0))</f>
+        <f>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[GoldShopDropId]],[1]!DropTable[Index],0))</f>
         <v>2층_골드상점_슬롯</v>
       </c>
       <c r="Q4" s="4" t="str">
-        <f>INDEX([1]!표12['#메모],MATCH(표13[[#This Row],[BossDropId]],[1]!표12[Index],0))</f>
+        <f>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[BossDropId]],[1]!DropTable[Index],0))</f>
         <v>2층_선택지</v>
       </c>
       <c r="R4" s="4" t="str">
-        <f>INDEX([1]!표12['#메모],MATCH(표13[[#This Row],[ChoiceDropId]],[1]!표12[Index],0))</f>
+        <f>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[ChoiceDropId]],[1]!DropTable[Index],0))</f>
         <v>2층_보스</v>
       </c>
       <c r="S4" s="4" t="str">
-        <f>INDEX([1]!표12['#메모],MATCH(표13[[#This Row],[WeaponDropId]],[1]!표12[Index],0))</f>
+        <f>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[WeaponDropId]],[1]!DropTable[Index],0))</f>
         <v>2층_시작무기선택</v>
       </c>
     </row>

--- a/_GameData/ProductialMapGameData.xlsx
+++ b/_GameData/ProductialMapGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC954AB6-0323-4F8A-9905-CB4936138D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D410E66E-D4B2-43A0-A54E-C894F646D1B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B4F4CE9B-2BD4-440D-B4CC-8D46DC7085AD}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1822F52D-0652-48BA-ABAD-1F912F6277CD}"/>
   </bookViews>
   <sheets>
     <sheet name="ProductialMapGameData" sheetId="1" r:id="rId1"/>
@@ -369,7 +369,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{76A9104C-FD0E-4307-B3E2-C40D121AAEB6}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{B3FFEAFA-D87F-451B-AE67-0052F0E05B23}">
       <tableStyleElement type="wholeTable" dxfId="11"/>
       <tableStyleElement type="headerRow" dxfId="10"/>
       <tableStyleElement type="firstRowStripe" dxfId="9"/>
@@ -434,37 +434,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{660E5FC2-2B23-4FCA-BE0E-046C96F50A09}" name="ProductialTable" displayName="ProductialTable" ref="B2:S4" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{36C1B1D9-A82E-4511-931E-0ABF529FF90F}" name="ProductialTable" displayName="ProductialTable" ref="B2:S4" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="B2:S4" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{EBBB1DBE-81D3-413B-8583-9540D54A819C}" name="Index"/>
-    <tableColumn id="10" xr3:uid="{638E2D10-69C9-4964-84A7-7B3F953E7D1C}" name="#이름" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{563527D1-2CF4-4727-83FD-4DBAE696F9D2}" name="MaxRoomValue"/>
-    <tableColumn id="3" xr3:uid="{BED377DA-CF7B-4521-9BA5-19814C5A2ACE}" name="GoldShopProb"/>
-    <tableColumn id="4" xr3:uid="{F9D03E78-F92D-4A9A-AB84-8124A18CE62A}" name="HpShopProb"/>
-    <tableColumn id="5" xr3:uid="{8C6EB549-A134-4D98-80D8-4498BE2C11A5}" name="EnemyHpIncreasePer"/>
-    <tableColumn id="12" xr3:uid="{2C0CF156-2E1A-479A-AD39-2E44D6532658}" name="ItemDropId"/>
-    <tableColumn id="6" xr3:uid="{9AD7819C-AAFA-42F7-82F5-02B5D9EBC8F7}" name="HpShopDropId"/>
-    <tableColumn id="7" xr3:uid="{AFDFF058-DCE0-4A9B-82B9-0A837D2C2A45}" name="GoldShopDropId"/>
-    <tableColumn id="8" xr3:uid="{F31F209B-E7C8-4665-8DC6-88D6C253F2AF}" name="BossDropId"/>
-    <tableColumn id="9" xr3:uid="{AC572BD6-237C-44EA-B825-9AD5175B288D}" name="ChoiceDropId"/>
-    <tableColumn id="11" xr3:uid="{DDA9A703-9BBE-44B7-8AB8-F30F6FB30D53}" name="WeaponDropId"/>
-    <tableColumn id="13" xr3:uid="{7C71E6FD-5716-4513-8E57-813CE08B7100}" name="#드랍테이블1" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{96814C60-E1CB-4860-B377-DFE9CF66A51A}" name="Index"/>
+    <tableColumn id="10" xr3:uid="{EFBEA667-3EA7-46F3-8A61-45E444E8F9EA}" name="#이름" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{09FA78F8-9541-4F28-B924-A3817ABE2B51}" name="MaxRoomValue"/>
+    <tableColumn id="3" xr3:uid="{84ED82D9-D6A5-4E32-8209-88C221474F06}" name="GoldShopProb"/>
+    <tableColumn id="4" xr3:uid="{600A5E79-F8CD-4545-88F0-F73A6C646E92}" name="HpShopProb"/>
+    <tableColumn id="5" xr3:uid="{B9119B40-CD66-4B77-9B11-787AC8E2C8C4}" name="EnemyHpIncreasePer"/>
+    <tableColumn id="12" xr3:uid="{87C098DC-6A5E-47DB-8F54-6538B884F01B}" name="ItemDropId"/>
+    <tableColumn id="6" xr3:uid="{A7636A70-8730-48F7-B35A-01CC3AD68F21}" name="HpShopDropId"/>
+    <tableColumn id="7" xr3:uid="{4B572C59-9B98-4E9A-BA02-07E124FBE290}" name="GoldShopDropId"/>
+    <tableColumn id="8" xr3:uid="{F17A76EF-032B-40E8-9041-0D42B026E689}" name="BossDropId"/>
+    <tableColumn id="9" xr3:uid="{5042FD09-025C-4805-AD82-F17BCE67F9C6}" name="ChoiceDropId"/>
+    <tableColumn id="11" xr3:uid="{2EDF5EB0-E4CA-42C7-93E2-B5CB52F29028}" name="WeaponDropId"/>
+    <tableColumn id="13" xr3:uid="{6BC838BF-CBA9-4DAE-AA96-8BBDCE84B400}" name="#드랍테이블1" dataDxfId="5">
       <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[ItemDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{4246536D-F51D-40E0-852A-428D85826FC3}" name="#드랍테이블2" dataDxfId="4">
+    <tableColumn id="14" xr3:uid="{350C79BA-CF3D-4318-90E3-ED3DE558D800}" name="#드랍테이블2" dataDxfId="4">
       <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[HpShopDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{D6C052B8-442D-42D4-B462-EB43FD15D71F}" name="#드랍테이블3" dataDxfId="3">
+    <tableColumn id="15" xr3:uid="{84F101DC-7DD0-4B99-B4D9-973B523D6FCC}" name="#드랍테이블3" dataDxfId="3">
       <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[GoldShopDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{7DCFF0F5-ED8D-454C-AD0B-4528BF28DE11}" name="#드랍테이블4" dataDxfId="2">
+    <tableColumn id="16" xr3:uid="{75AF63C5-A81E-4F2F-AC2D-58DD31F2B4B9}" name="#드랍테이블4" dataDxfId="2">
       <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[BossDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{7AF779CA-F69B-4DE8-8DE1-93780FCE0309}" name="#드랍테이블5" dataDxfId="1">
+    <tableColumn id="17" xr3:uid="{41B723AD-0FFF-413D-AD26-EBAFF588EF4B}" name="#드랍테이블5" dataDxfId="1">
       <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[ChoiceDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{5DAA5574-752D-45DB-8636-01D17CCAA592}" name="#드랍테이블6" dataDxfId="0">
+    <tableColumn id="18" xr3:uid="{25596A9D-1CF7-45E7-ABB0-5F3EAD99B589}" name="#드랍테이블6" dataDxfId="0">
       <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[WeaponDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -768,14 +768,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22F69094-471E-4B82-803A-96276A987C6F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B221248C-7834-47E7-9BDE-94036D0C3816}">
   <sheetPr codeName="Sheet8">
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/_GameData/ProductialMapGameData.xlsx
+++ b/_GameData/ProductialMapGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D410E66E-D4B2-43A0-A54E-C894F646D1B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FC75A7F-6B43-400D-AE80-29A6AD577A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1822F52D-0652-48BA-ABAD-1F912F6277CD}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{14BD6B3F-67BD-44E4-813B-3755F1C07680}"/>
   </bookViews>
   <sheets>
     <sheet name="ProductialMapGameData" sheetId="1" r:id="rId1"/>
@@ -369,7 +369,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{B3FFEAFA-D87F-451B-AE67-0052F0E05B23}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{C8D6E843-CBF9-4C6F-B819-F4D785BA2028}">
       <tableStyleElement type="wholeTable" dxfId="11"/>
       <tableStyleElement type="headerRow" dxfId="10"/>
       <tableStyleElement type="firstRowStripe" dxfId="9"/>
@@ -434,37 +434,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{36C1B1D9-A82E-4511-931E-0ABF529FF90F}" name="ProductialTable" displayName="ProductialTable" ref="B2:S4" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4929BCC0-C7D9-4FD7-A16A-F3C9B86EB633}" name="ProductialTable" displayName="ProductialTable" ref="B2:S4" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="B2:S4" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{96814C60-E1CB-4860-B377-DFE9CF66A51A}" name="Index"/>
-    <tableColumn id="10" xr3:uid="{EFBEA667-3EA7-46F3-8A61-45E444E8F9EA}" name="#이름" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{09FA78F8-9541-4F28-B924-A3817ABE2B51}" name="MaxRoomValue"/>
-    <tableColumn id="3" xr3:uid="{84ED82D9-D6A5-4E32-8209-88C221474F06}" name="GoldShopProb"/>
-    <tableColumn id="4" xr3:uid="{600A5E79-F8CD-4545-88F0-F73A6C646E92}" name="HpShopProb"/>
-    <tableColumn id="5" xr3:uid="{B9119B40-CD66-4B77-9B11-787AC8E2C8C4}" name="EnemyHpIncreasePer"/>
-    <tableColumn id="12" xr3:uid="{87C098DC-6A5E-47DB-8F54-6538B884F01B}" name="ItemDropId"/>
-    <tableColumn id="6" xr3:uid="{A7636A70-8730-48F7-B35A-01CC3AD68F21}" name="HpShopDropId"/>
-    <tableColumn id="7" xr3:uid="{4B572C59-9B98-4E9A-BA02-07E124FBE290}" name="GoldShopDropId"/>
-    <tableColumn id="8" xr3:uid="{F17A76EF-032B-40E8-9041-0D42B026E689}" name="BossDropId"/>
-    <tableColumn id="9" xr3:uid="{5042FD09-025C-4805-AD82-F17BCE67F9C6}" name="ChoiceDropId"/>
-    <tableColumn id="11" xr3:uid="{2EDF5EB0-E4CA-42C7-93E2-B5CB52F29028}" name="WeaponDropId"/>
-    <tableColumn id="13" xr3:uid="{6BC838BF-CBA9-4DAE-AA96-8BBDCE84B400}" name="#드랍테이블1" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{DF4B1463-6E11-44BA-B6DE-7DCE8EA402EC}" name="Index"/>
+    <tableColumn id="10" xr3:uid="{520B3DCC-3211-42AA-AF81-BA502A7F05E0}" name="#이름" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{79B32CE2-33A5-414C-9D68-A12916F0F522}" name="MaxRoomValue"/>
+    <tableColumn id="3" xr3:uid="{9D2F07C7-4E6E-4496-B704-4DAC355050AB}" name="GoldShopProb"/>
+    <tableColumn id="4" xr3:uid="{EE365CBC-1315-40DD-8E58-0F4203317718}" name="HpShopProb"/>
+    <tableColumn id="5" xr3:uid="{389F6953-FBB2-477B-A7F3-E4ABA27EECE8}" name="EnemyHpIncreasePer"/>
+    <tableColumn id="12" xr3:uid="{3B81113E-B0FF-403B-872E-624D893427A8}" name="ItemDropId"/>
+    <tableColumn id="6" xr3:uid="{72568739-81D8-48BE-B0B7-FA9F77D50514}" name="HpShopDropId"/>
+    <tableColumn id="7" xr3:uid="{D976CB2C-7B36-4628-A2B0-A27E02F429AF}" name="GoldShopDropId"/>
+    <tableColumn id="8" xr3:uid="{28744E80-31BE-4BB0-BBC1-D4674732170D}" name="BossDropId"/>
+    <tableColumn id="9" xr3:uid="{51344A22-ED6A-4ACC-B366-4D965EAB6A2A}" name="ChoiceDropId"/>
+    <tableColumn id="11" xr3:uid="{FC2377F9-C494-47B6-8B26-F2B6B5F19642}" name="WeaponDropId"/>
+    <tableColumn id="13" xr3:uid="{238CC16B-AB9C-4407-A87E-38F2F0622B83}" name="#드랍테이블1" dataDxfId="5">
       <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[ItemDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{350C79BA-CF3D-4318-90E3-ED3DE558D800}" name="#드랍테이블2" dataDxfId="4">
+    <tableColumn id="14" xr3:uid="{C67A489B-8941-4EE5-B99F-6E1CB280ED46}" name="#드랍테이블2" dataDxfId="4">
       <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[HpShopDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{84F101DC-7DD0-4B99-B4D9-973B523D6FCC}" name="#드랍테이블3" dataDxfId="3">
+    <tableColumn id="15" xr3:uid="{0511A82A-1DE3-42EA-9BD1-FD3805525184}" name="#드랍테이블3" dataDxfId="3">
       <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[GoldShopDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{75AF63C5-A81E-4F2F-AC2D-58DD31F2B4B9}" name="#드랍테이블4" dataDxfId="2">
+    <tableColumn id="16" xr3:uid="{5B53A47B-4E41-4DDC-A95E-B5A1BD3C7186}" name="#드랍테이블4" dataDxfId="2">
       <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[BossDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{41B723AD-0FFF-413D-AD26-EBAFF588EF4B}" name="#드랍테이블5" dataDxfId="1">
+    <tableColumn id="17" xr3:uid="{B6CDD849-E1AA-475C-B9D2-39396ABA6C84}" name="#드랍테이블5" dataDxfId="1">
       <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[ChoiceDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{25596A9D-1CF7-45E7-ABB0-5F3EAD99B589}" name="#드랍테이블6" dataDxfId="0">
+    <tableColumn id="18" xr3:uid="{0B3D3BCA-0884-492C-B572-0CA804C02864}" name="#드랍테이블6" dataDxfId="0">
       <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[WeaponDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -768,7 +768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B221248C-7834-47E7-9BDE-94036D0C3816}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC1816C8-4E6B-4604-BA5B-0B77FBB3476C}">
   <sheetPr codeName="Sheet8">
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/ProductialMapGameData.xlsx
+++ b/_GameData/ProductialMapGameData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FC75A7F-6B43-400D-AE80-29A6AD577A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{372EC1D5-FC7F-4F24-A213-0AEE41D17D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{14BD6B3F-67BD-44E4-813B-3755F1C07680}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{47AFE14F-71AF-4E02-861A-C1870FFFEF64}"/>
   </bookViews>
   <sheets>
     <sheet name="ProductialMapGameData" sheetId="1" r:id="rId1"/>
@@ -369,7 +369,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{C8D6E843-CBF9-4C6F-B819-F4D785BA2028}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{3391D239-FBB4-45B5-B45F-CBA664CF293F}">
       <tableStyleElement type="wholeTable" dxfId="11"/>
       <tableStyleElement type="headerRow" dxfId="10"/>
       <tableStyleElement type="firstRowStripe" dxfId="9"/>
@@ -434,37 +434,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4929BCC0-C7D9-4FD7-A16A-F3C9B86EB633}" name="ProductialTable" displayName="ProductialTable" ref="B2:S4" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C0A9731-453A-4181-A1C3-74CD840E2400}" name="ProductialTable" displayName="ProductialTable" ref="B2:S4" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="B2:S4" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{DF4B1463-6E11-44BA-B6DE-7DCE8EA402EC}" name="Index"/>
-    <tableColumn id="10" xr3:uid="{520B3DCC-3211-42AA-AF81-BA502A7F05E0}" name="#이름" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{79B32CE2-33A5-414C-9D68-A12916F0F522}" name="MaxRoomValue"/>
-    <tableColumn id="3" xr3:uid="{9D2F07C7-4E6E-4496-B704-4DAC355050AB}" name="GoldShopProb"/>
-    <tableColumn id="4" xr3:uid="{EE365CBC-1315-40DD-8E58-0F4203317718}" name="HpShopProb"/>
-    <tableColumn id="5" xr3:uid="{389F6953-FBB2-477B-A7F3-E4ABA27EECE8}" name="EnemyHpIncreasePer"/>
-    <tableColumn id="12" xr3:uid="{3B81113E-B0FF-403B-872E-624D893427A8}" name="ItemDropId"/>
-    <tableColumn id="6" xr3:uid="{72568739-81D8-48BE-B0B7-FA9F77D50514}" name="HpShopDropId"/>
-    <tableColumn id="7" xr3:uid="{D976CB2C-7B36-4628-A2B0-A27E02F429AF}" name="GoldShopDropId"/>
-    <tableColumn id="8" xr3:uid="{28744E80-31BE-4BB0-BBC1-D4674732170D}" name="BossDropId"/>
-    <tableColumn id="9" xr3:uid="{51344A22-ED6A-4ACC-B366-4D965EAB6A2A}" name="ChoiceDropId"/>
-    <tableColumn id="11" xr3:uid="{FC2377F9-C494-47B6-8B26-F2B6B5F19642}" name="WeaponDropId"/>
-    <tableColumn id="13" xr3:uid="{238CC16B-AB9C-4407-A87E-38F2F0622B83}" name="#드랍테이블1" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{649F042E-B9DC-4F0E-BAC4-095021FCC295}" name="Index"/>
+    <tableColumn id="10" xr3:uid="{C98A4927-A7F0-429F-A46D-66C2D89633FE}" name="#이름" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{0D947484-9242-4E8A-A6AE-B5CEEC41A9D6}" name="MaxRoomValue"/>
+    <tableColumn id="3" xr3:uid="{3414848A-C3A7-47AF-92B4-FBCEDF47D884}" name="GoldShopProb"/>
+    <tableColumn id="4" xr3:uid="{9D56119F-2D70-4147-B979-D9AFF7584402}" name="HpShopProb"/>
+    <tableColumn id="5" xr3:uid="{0D182560-B72E-4CF8-829C-DF46D1A16D66}" name="EnemyHpIncreasePer"/>
+    <tableColumn id="12" xr3:uid="{08AC4F64-2E63-422D-BAC9-53BECA868C38}" name="ItemDropId"/>
+    <tableColumn id="6" xr3:uid="{CC971538-05F2-4DF5-9832-77CBFB9C1CD0}" name="HpShopDropId"/>
+    <tableColumn id="7" xr3:uid="{0D2D0943-0650-4EBE-AC2D-F2A230714B71}" name="GoldShopDropId"/>
+    <tableColumn id="8" xr3:uid="{A099FC8D-12E8-4126-93BE-FE3EDE1D2F7F}" name="BossDropId"/>
+    <tableColumn id="9" xr3:uid="{CD5716EB-75C0-4482-96B8-6F75B8CCEEAD}" name="ChoiceDropId"/>
+    <tableColumn id="11" xr3:uid="{59A59014-66E1-4787-A8AE-824B2690B567}" name="WeaponDropId"/>
+    <tableColumn id="13" xr3:uid="{90364F2C-31C1-49DC-9685-A10014568D62}" name="#드랍테이블1" dataDxfId="5">
       <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[ItemDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{C67A489B-8941-4EE5-B99F-6E1CB280ED46}" name="#드랍테이블2" dataDxfId="4">
+    <tableColumn id="14" xr3:uid="{ED61C578-3BDA-4F07-806D-4311513FDF66}" name="#드랍테이블2" dataDxfId="4">
       <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[HpShopDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{0511A82A-1DE3-42EA-9BD1-FD3805525184}" name="#드랍테이블3" dataDxfId="3">
+    <tableColumn id="15" xr3:uid="{C8E742A1-9F60-406F-9800-C579ED5C9A57}" name="#드랍테이블3" dataDxfId="3">
       <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[GoldShopDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{5B53A47B-4E41-4DDC-A95E-B5A1BD3C7186}" name="#드랍테이블4" dataDxfId="2">
+    <tableColumn id="16" xr3:uid="{C31D8A8C-518E-4E7E-8AC2-83015C694969}" name="#드랍테이블4" dataDxfId="2">
       <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[BossDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{B6CDD849-E1AA-475C-B9D2-39396ABA6C84}" name="#드랍테이블5" dataDxfId="1">
+    <tableColumn id="17" xr3:uid="{FF8AB649-1A8D-429C-9FA3-1F78F9A37FD9}" name="#드랍테이블5" dataDxfId="1">
       <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[ChoiceDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{0B3D3BCA-0884-492C-B572-0CA804C02864}" name="#드랍테이블6" dataDxfId="0">
+    <tableColumn id="18" xr3:uid="{36AE00EA-1296-471C-A341-67FBE9853733}" name="#드랍테이블6" dataDxfId="0">
       <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[WeaponDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -768,14 +768,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC1816C8-4E6B-4604-BA5B-0B77FBB3476C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84C96B79-314D-48A6-8238-B3C91A6F4387}">
   <sheetPr codeName="Sheet8">
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/_GameData/ProductialMapGameData.xlsx
+++ b/_GameData/ProductialMapGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{372EC1D5-FC7F-4F24-A213-0AEE41D17D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8562983-1EA2-46D3-9D48-F8A139AB943B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{47AFE14F-71AF-4E02-861A-C1870FFFEF64}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{49A282BB-1244-4E12-B8F6-E2646EF07136}"/>
   </bookViews>
   <sheets>
     <sheet name="ProductialMapGameData" sheetId="1" r:id="rId1"/>
@@ -369,7 +369,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{3391D239-FBB4-45B5-B45F-CBA664CF293F}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{D99AEAC8-4E66-4631-A0E2-DF4D81962647}">
       <tableStyleElement type="wholeTable" dxfId="11"/>
       <tableStyleElement type="headerRow" dxfId="10"/>
       <tableStyleElement type="firstRowStripe" dxfId="9"/>
@@ -434,37 +434,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C0A9731-453A-4181-A1C3-74CD840E2400}" name="ProductialTable" displayName="ProductialTable" ref="B2:S4" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A551767D-9E1C-4F4D-8FD9-D3A0F2A84E35}" name="ProductialTable" displayName="ProductialTable" ref="B2:S4" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="B2:S4" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{649F042E-B9DC-4F0E-BAC4-095021FCC295}" name="Index"/>
-    <tableColumn id="10" xr3:uid="{C98A4927-A7F0-429F-A46D-66C2D89633FE}" name="#이름" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{0D947484-9242-4E8A-A6AE-B5CEEC41A9D6}" name="MaxRoomValue"/>
-    <tableColumn id="3" xr3:uid="{3414848A-C3A7-47AF-92B4-FBCEDF47D884}" name="GoldShopProb"/>
-    <tableColumn id="4" xr3:uid="{9D56119F-2D70-4147-B979-D9AFF7584402}" name="HpShopProb"/>
-    <tableColumn id="5" xr3:uid="{0D182560-B72E-4CF8-829C-DF46D1A16D66}" name="EnemyHpIncreasePer"/>
-    <tableColumn id="12" xr3:uid="{08AC4F64-2E63-422D-BAC9-53BECA868C38}" name="ItemDropId"/>
-    <tableColumn id="6" xr3:uid="{CC971538-05F2-4DF5-9832-77CBFB9C1CD0}" name="HpShopDropId"/>
-    <tableColumn id="7" xr3:uid="{0D2D0943-0650-4EBE-AC2D-F2A230714B71}" name="GoldShopDropId"/>
-    <tableColumn id="8" xr3:uid="{A099FC8D-12E8-4126-93BE-FE3EDE1D2F7F}" name="BossDropId"/>
-    <tableColumn id="9" xr3:uid="{CD5716EB-75C0-4482-96B8-6F75B8CCEEAD}" name="ChoiceDropId"/>
-    <tableColumn id="11" xr3:uid="{59A59014-66E1-4787-A8AE-824B2690B567}" name="WeaponDropId"/>
-    <tableColumn id="13" xr3:uid="{90364F2C-31C1-49DC-9685-A10014568D62}" name="#드랍테이블1" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{4552A5B8-1B24-4E55-998C-83A613F8CD86}" name="Index"/>
+    <tableColumn id="10" xr3:uid="{B068CA64-D638-4BC1-91B5-6DCCA3916FD0}" name="#이름" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{760D73A7-B9FC-4391-8515-A9C306F52593}" name="MaxRoomValue"/>
+    <tableColumn id="3" xr3:uid="{2A35FFEA-325E-48CD-ABF4-EE11E8F4CEBE}" name="GoldShopProb"/>
+    <tableColumn id="4" xr3:uid="{711AAFB7-8E01-4120-8FDF-630F02D7EDD1}" name="HpShopProb"/>
+    <tableColumn id="5" xr3:uid="{385A1D1B-C056-4CE2-9B64-421B3524BE5B}" name="EnemyHpIncreasePer"/>
+    <tableColumn id="12" xr3:uid="{511D82BB-F5B4-4199-A5DB-99C0214AB3CD}" name="ItemDropId"/>
+    <tableColumn id="6" xr3:uid="{5E8E6E54-E79E-4C0F-9A50-30011B8C640D}" name="HpShopDropId"/>
+    <tableColumn id="7" xr3:uid="{FB89B943-C463-4E8E-942E-E6E8C201E513}" name="GoldShopDropId"/>
+    <tableColumn id="8" xr3:uid="{AE3FF05D-7255-403F-BE7D-96DCA567C3E8}" name="BossDropId"/>
+    <tableColumn id="9" xr3:uid="{862065E8-2BC5-430A-9582-5A25F57F62C2}" name="ChoiceDropId"/>
+    <tableColumn id="11" xr3:uid="{24EC99E3-9EE5-4F4B-9E1A-907907142E01}" name="WeaponDropId"/>
+    <tableColumn id="13" xr3:uid="{AD4F1AC9-B58F-4E26-ACE6-57AC10784F1D}" name="#드랍테이블1" dataDxfId="5">
       <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[ItemDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{ED61C578-3BDA-4F07-806D-4311513FDF66}" name="#드랍테이블2" dataDxfId="4">
+    <tableColumn id="14" xr3:uid="{7CFAA424-EB8D-4DFC-B423-456941A24DAF}" name="#드랍테이블2" dataDxfId="4">
       <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[HpShopDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{C8E742A1-9F60-406F-9800-C579ED5C9A57}" name="#드랍테이블3" dataDxfId="3">
+    <tableColumn id="15" xr3:uid="{4B5AB15B-07A0-42FD-B345-BE81A00E0687}" name="#드랍테이블3" dataDxfId="3">
       <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[GoldShopDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{C31D8A8C-518E-4E7E-8AC2-83015C694969}" name="#드랍테이블4" dataDxfId="2">
+    <tableColumn id="16" xr3:uid="{056D2868-70E5-4E34-8B6A-A0B15633E5DA}" name="#드랍테이블4" dataDxfId="2">
       <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[BossDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{FF8AB649-1A8D-429C-9FA3-1F78F9A37FD9}" name="#드랍테이블5" dataDxfId="1">
+    <tableColumn id="17" xr3:uid="{EE21A416-F70D-4B3F-8844-343C670931CF}" name="#드랍테이블5" dataDxfId="1">
       <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[ChoiceDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{36AE00EA-1296-471C-A341-67FBE9853733}" name="#드랍테이블6" dataDxfId="0">
+    <tableColumn id="18" xr3:uid="{016D0304-36BF-48B4-80EF-3098556ECD5E}" name="#드랍테이블6" dataDxfId="0">
       <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[WeaponDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -768,7 +768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84C96B79-314D-48A6-8238-B3C91A6F4387}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA32E24-D3DA-4D39-9D61-B0156F3967FC}">
   <sheetPr codeName="Sheet8">
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/ProductialMapGameData.xlsx
+++ b/_GameData/ProductialMapGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8562983-1EA2-46D3-9D48-F8A139AB943B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A51C6C2-95F4-4C75-975E-0A728D29CE2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{49A282BB-1244-4E12-B8F6-E2646EF07136}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9933E6D9-EF08-4B3A-B4B5-D83A9386C353}"/>
   </bookViews>
   <sheets>
     <sheet name="ProductialMapGameData" sheetId="1" r:id="rId1"/>
@@ -369,7 +369,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{D99AEAC8-4E66-4631-A0E2-DF4D81962647}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{54C632CA-B40E-4EE2-A11C-D6B02863D752}">
       <tableStyleElement type="wholeTable" dxfId="11"/>
       <tableStyleElement type="headerRow" dxfId="10"/>
       <tableStyleElement type="firstRowStripe" dxfId="9"/>
@@ -434,37 +434,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A551767D-9E1C-4F4D-8FD9-D3A0F2A84E35}" name="ProductialTable" displayName="ProductialTable" ref="B2:S4" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B900CCAC-4885-4D1B-AFBD-F0E9B74E3323}" name="ProductialTable" displayName="ProductialTable" ref="B2:S4" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="B2:S4" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{4552A5B8-1B24-4E55-998C-83A613F8CD86}" name="Index"/>
-    <tableColumn id="10" xr3:uid="{B068CA64-D638-4BC1-91B5-6DCCA3916FD0}" name="#이름" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{760D73A7-B9FC-4391-8515-A9C306F52593}" name="MaxRoomValue"/>
-    <tableColumn id="3" xr3:uid="{2A35FFEA-325E-48CD-ABF4-EE11E8F4CEBE}" name="GoldShopProb"/>
-    <tableColumn id="4" xr3:uid="{711AAFB7-8E01-4120-8FDF-630F02D7EDD1}" name="HpShopProb"/>
-    <tableColumn id="5" xr3:uid="{385A1D1B-C056-4CE2-9B64-421B3524BE5B}" name="EnemyHpIncreasePer"/>
-    <tableColumn id="12" xr3:uid="{511D82BB-F5B4-4199-A5DB-99C0214AB3CD}" name="ItemDropId"/>
-    <tableColumn id="6" xr3:uid="{5E8E6E54-E79E-4C0F-9A50-30011B8C640D}" name="HpShopDropId"/>
-    <tableColumn id="7" xr3:uid="{FB89B943-C463-4E8E-942E-E6E8C201E513}" name="GoldShopDropId"/>
-    <tableColumn id="8" xr3:uid="{AE3FF05D-7255-403F-BE7D-96DCA567C3E8}" name="BossDropId"/>
-    <tableColumn id="9" xr3:uid="{862065E8-2BC5-430A-9582-5A25F57F62C2}" name="ChoiceDropId"/>
-    <tableColumn id="11" xr3:uid="{24EC99E3-9EE5-4F4B-9E1A-907907142E01}" name="WeaponDropId"/>
-    <tableColumn id="13" xr3:uid="{AD4F1AC9-B58F-4E26-ACE6-57AC10784F1D}" name="#드랍테이블1" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{D67E9705-BFF5-401F-828B-30EED7170A58}" name="Index"/>
+    <tableColumn id="10" xr3:uid="{B76CC849-01E0-45F0-AD29-72E8D8A322FE}" name="#이름" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{3D950588-EBCF-4B0B-9062-CBCAAE6CEE95}" name="MaxRoomValue"/>
+    <tableColumn id="3" xr3:uid="{3B0687A3-098A-4F4F-AC34-D98C02DAFC2C}" name="GoldShopProb"/>
+    <tableColumn id="4" xr3:uid="{55B22392-195F-444C-B545-DE293F32D91B}" name="HpShopProb"/>
+    <tableColumn id="5" xr3:uid="{747FAAB5-856A-4CFA-BECC-C5EEDE072251}" name="EnemyHpIncreasePer"/>
+    <tableColumn id="12" xr3:uid="{7E5AC9B7-3CEC-4E95-BF37-3BC60A2466F9}" name="ItemDropId"/>
+    <tableColumn id="6" xr3:uid="{E99738E4-5703-490B-94F1-C3377F95AF77}" name="HpShopDropId"/>
+    <tableColumn id="7" xr3:uid="{F2E55B1F-3B79-40EE-93EF-E819CF2511D2}" name="GoldShopDropId"/>
+    <tableColumn id="8" xr3:uid="{6F0DFA32-1FD4-476D-AFA8-FD86DEE79453}" name="BossDropId"/>
+    <tableColumn id="9" xr3:uid="{42D9415A-7B2D-49E8-8061-FF20C222907D}" name="ChoiceDropId"/>
+    <tableColumn id="11" xr3:uid="{98D586C5-7567-4941-B048-0CC9D4162142}" name="WeaponDropId"/>
+    <tableColumn id="13" xr3:uid="{9CB88BBC-FC03-4E13-A16B-067695D21F1D}" name="#드랍테이블1" dataDxfId="5">
       <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[ItemDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{7CFAA424-EB8D-4DFC-B423-456941A24DAF}" name="#드랍테이블2" dataDxfId="4">
+    <tableColumn id="14" xr3:uid="{C24496E8-7599-4F80-8D17-63FFF848EA5C}" name="#드랍테이블2" dataDxfId="4">
       <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[HpShopDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{4B5AB15B-07A0-42FD-B345-BE81A00E0687}" name="#드랍테이블3" dataDxfId="3">
+    <tableColumn id="15" xr3:uid="{74F5FCC9-F43E-4690-801B-5E7F4149CD0D}" name="#드랍테이블3" dataDxfId="3">
       <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[GoldShopDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{056D2868-70E5-4E34-8B6A-A0B15633E5DA}" name="#드랍테이블4" dataDxfId="2">
+    <tableColumn id="16" xr3:uid="{E9012EBF-9C3A-4BD7-B0F1-EC9503D98672}" name="#드랍테이블4" dataDxfId="2">
       <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[BossDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{EE21A416-F70D-4B3F-8844-343C670931CF}" name="#드랍테이블5" dataDxfId="1">
+    <tableColumn id="17" xr3:uid="{BAC7D60A-4E76-43B2-9F32-1BB0E5C5D2AF}" name="#드랍테이블5" dataDxfId="1">
       <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[ChoiceDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{016D0304-36BF-48B4-80EF-3098556ECD5E}" name="#드랍테이블6" dataDxfId="0">
+    <tableColumn id="18" xr3:uid="{063037BA-7A0A-4F87-909C-36F34ACD0CB4}" name="#드랍테이블6" dataDxfId="0">
       <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[WeaponDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -768,7 +768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA32E24-D3DA-4D39-9D61-B0156F3967FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E715BEB-EA70-44D4-B912-3E879EF1DEFD}">
   <sheetPr codeName="Sheet8">
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/ProductialMapGameData.xlsx
+++ b/_GameData/ProductialMapGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A51C6C2-95F4-4C75-975E-0A728D29CE2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B69260A-C578-4239-887E-7AE65E442725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9933E6D9-EF08-4B3A-B4B5-D83A9386C353}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{919AF660-0EAC-40C0-AAD9-22F1F3466B02}"/>
   </bookViews>
   <sheets>
     <sheet name="ProductialMapGameData" sheetId="1" r:id="rId1"/>
@@ -369,7 +369,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{54C632CA-B40E-4EE2-A11C-D6B02863D752}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{A2D23302-7533-4CB7-AAB3-2EB596223B8E}">
       <tableStyleElement type="wholeTable" dxfId="11"/>
       <tableStyleElement type="headerRow" dxfId="10"/>
       <tableStyleElement type="firstRowStripe" dxfId="9"/>
@@ -434,37 +434,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B900CCAC-4885-4D1B-AFBD-F0E9B74E3323}" name="ProductialTable" displayName="ProductialTable" ref="B2:S4" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C2436E8A-54E6-42DB-A178-010EF7DB2614}" name="ProductialTable" displayName="ProductialTable" ref="B2:S4" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="B2:S4" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{D67E9705-BFF5-401F-828B-30EED7170A58}" name="Index"/>
-    <tableColumn id="10" xr3:uid="{B76CC849-01E0-45F0-AD29-72E8D8A322FE}" name="#이름" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{3D950588-EBCF-4B0B-9062-CBCAAE6CEE95}" name="MaxRoomValue"/>
-    <tableColumn id="3" xr3:uid="{3B0687A3-098A-4F4F-AC34-D98C02DAFC2C}" name="GoldShopProb"/>
-    <tableColumn id="4" xr3:uid="{55B22392-195F-444C-B545-DE293F32D91B}" name="HpShopProb"/>
-    <tableColumn id="5" xr3:uid="{747FAAB5-856A-4CFA-BECC-C5EEDE072251}" name="EnemyHpIncreasePer"/>
-    <tableColumn id="12" xr3:uid="{7E5AC9B7-3CEC-4E95-BF37-3BC60A2466F9}" name="ItemDropId"/>
-    <tableColumn id="6" xr3:uid="{E99738E4-5703-490B-94F1-C3377F95AF77}" name="HpShopDropId"/>
-    <tableColumn id="7" xr3:uid="{F2E55B1F-3B79-40EE-93EF-E819CF2511D2}" name="GoldShopDropId"/>
-    <tableColumn id="8" xr3:uid="{6F0DFA32-1FD4-476D-AFA8-FD86DEE79453}" name="BossDropId"/>
-    <tableColumn id="9" xr3:uid="{42D9415A-7B2D-49E8-8061-FF20C222907D}" name="ChoiceDropId"/>
-    <tableColumn id="11" xr3:uid="{98D586C5-7567-4941-B048-0CC9D4162142}" name="WeaponDropId"/>
-    <tableColumn id="13" xr3:uid="{9CB88BBC-FC03-4E13-A16B-067695D21F1D}" name="#드랍테이블1" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{A8CCAB81-7F9B-49C7-BD21-9FD4E2173036}" name="Index"/>
+    <tableColumn id="10" xr3:uid="{CA4FDABD-12C1-4F24-9C6D-6972E6241A16}" name="#이름" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{3D766C51-9974-418E-9E99-AA011D5CA379}" name="MaxRoomValue"/>
+    <tableColumn id="3" xr3:uid="{AE7EB984-A08D-48A1-A744-F79EE7E5B818}" name="GoldShopProb"/>
+    <tableColumn id="4" xr3:uid="{0DC746D9-A860-4FF2-8A1C-4F8C1642485C}" name="HpShopProb"/>
+    <tableColumn id="5" xr3:uid="{C504B3BB-5144-4E18-92ED-932A34C94927}" name="EnemyHpIncreasePer"/>
+    <tableColumn id="12" xr3:uid="{6AE61948-9B24-4D26-AD1C-10AAFC0D0B50}" name="ItemDropId"/>
+    <tableColumn id="6" xr3:uid="{ED436D02-4A12-483D-8922-5EFCEF86A96A}" name="HpShopDropId"/>
+    <tableColumn id="7" xr3:uid="{94E92612-FFAF-4D06-BC0D-E634F101751B}" name="GoldShopDropId"/>
+    <tableColumn id="8" xr3:uid="{31513EDF-1ABF-4288-8740-9A6AB842E569}" name="BossDropId"/>
+    <tableColumn id="9" xr3:uid="{7E6172EE-1DD9-4ED8-BD9E-BC4C908154CE}" name="ChoiceDropId"/>
+    <tableColumn id="11" xr3:uid="{C32DF1D3-DD1E-474F-B0BE-E58B7851B01C}" name="WeaponDropId"/>
+    <tableColumn id="13" xr3:uid="{5540E983-9FE3-4EBA-9A35-049E39122D2D}" name="#드랍테이블1" dataDxfId="5">
       <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[ItemDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{C24496E8-7599-4F80-8D17-63FFF848EA5C}" name="#드랍테이블2" dataDxfId="4">
+    <tableColumn id="14" xr3:uid="{8407124D-90F5-43DB-A88C-EC6CD44A4128}" name="#드랍테이블2" dataDxfId="4">
       <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[HpShopDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{74F5FCC9-F43E-4690-801B-5E7F4149CD0D}" name="#드랍테이블3" dataDxfId="3">
+    <tableColumn id="15" xr3:uid="{948C5737-8E31-44F8-8005-E3ACA79A9B01}" name="#드랍테이블3" dataDxfId="3">
       <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[GoldShopDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{E9012EBF-9C3A-4BD7-B0F1-EC9503D98672}" name="#드랍테이블4" dataDxfId="2">
+    <tableColumn id="16" xr3:uid="{C1E07277-4420-4251-8373-D7D8079D2308}" name="#드랍테이블4" dataDxfId="2">
       <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[BossDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{BAC7D60A-4E76-43B2-9F32-1BB0E5C5D2AF}" name="#드랍테이블5" dataDxfId="1">
+    <tableColumn id="17" xr3:uid="{44CCF276-4C45-4C96-B103-21965993F56B}" name="#드랍테이블5" dataDxfId="1">
       <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[ChoiceDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{063037BA-7A0A-4F87-909C-36F34ACD0CB4}" name="#드랍테이블6" dataDxfId="0">
+    <tableColumn id="18" xr3:uid="{06E22644-CFA2-485E-B6D3-62795AE72439}" name="#드랍테이블6" dataDxfId="0">
       <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[WeaponDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -768,7 +768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E715BEB-EA70-44D4-B912-3E879EF1DEFD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3572BCCA-8CDD-4488-AAE9-05E5D46A008D}">
   <sheetPr codeName="Sheet8">
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/ProductialMapGameData.xlsx
+++ b/_GameData/ProductialMapGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B69260A-C578-4239-887E-7AE65E442725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C371FA3-4C44-42CB-A61A-E9F6C74E4998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{919AF660-0EAC-40C0-AAD9-22F1F3466B02}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C39A60F5-3E5B-403C-93E3-DD94FC26C0D0}"/>
   </bookViews>
   <sheets>
     <sheet name="ProductialMapGameData" sheetId="1" r:id="rId1"/>
@@ -369,7 +369,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{A2D23302-7533-4CB7-AAB3-2EB596223B8E}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{40BE37AE-C4BC-434D-8082-5D28050A83F3}">
       <tableStyleElement type="wholeTable" dxfId="11"/>
       <tableStyleElement type="headerRow" dxfId="10"/>
       <tableStyleElement type="firstRowStripe" dxfId="9"/>
@@ -434,37 +434,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C2436E8A-54E6-42DB-A178-010EF7DB2614}" name="ProductialTable" displayName="ProductialTable" ref="B2:S4" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB29474C-D6E8-4286-9DE6-306294B68D95}" name="ProductialTable" displayName="ProductialTable" ref="B2:S4" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="B2:S4" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{A8CCAB81-7F9B-49C7-BD21-9FD4E2173036}" name="Index"/>
-    <tableColumn id="10" xr3:uid="{CA4FDABD-12C1-4F24-9C6D-6972E6241A16}" name="#이름" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{3D766C51-9974-418E-9E99-AA011D5CA379}" name="MaxRoomValue"/>
-    <tableColumn id="3" xr3:uid="{AE7EB984-A08D-48A1-A744-F79EE7E5B818}" name="GoldShopProb"/>
-    <tableColumn id="4" xr3:uid="{0DC746D9-A860-4FF2-8A1C-4F8C1642485C}" name="HpShopProb"/>
-    <tableColumn id="5" xr3:uid="{C504B3BB-5144-4E18-92ED-932A34C94927}" name="EnemyHpIncreasePer"/>
-    <tableColumn id="12" xr3:uid="{6AE61948-9B24-4D26-AD1C-10AAFC0D0B50}" name="ItemDropId"/>
-    <tableColumn id="6" xr3:uid="{ED436D02-4A12-483D-8922-5EFCEF86A96A}" name="HpShopDropId"/>
-    <tableColumn id="7" xr3:uid="{94E92612-FFAF-4D06-BC0D-E634F101751B}" name="GoldShopDropId"/>
-    <tableColumn id="8" xr3:uid="{31513EDF-1ABF-4288-8740-9A6AB842E569}" name="BossDropId"/>
-    <tableColumn id="9" xr3:uid="{7E6172EE-1DD9-4ED8-BD9E-BC4C908154CE}" name="ChoiceDropId"/>
-    <tableColumn id="11" xr3:uid="{C32DF1D3-DD1E-474F-B0BE-E58B7851B01C}" name="WeaponDropId"/>
-    <tableColumn id="13" xr3:uid="{5540E983-9FE3-4EBA-9A35-049E39122D2D}" name="#드랍테이블1" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{ADEBF241-62AC-4E1D-98FC-F90ABD9255B6}" name="Index"/>
+    <tableColumn id="10" xr3:uid="{434D5140-C136-4867-9345-FE208499AAFF}" name="#이름" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{C9E8C33B-854D-4A2E-9F0E-01B498EE896D}" name="MaxRoomValue"/>
+    <tableColumn id="3" xr3:uid="{6CD0A891-E26A-4CF4-91D1-E5ED1082D3A9}" name="GoldShopProb"/>
+    <tableColumn id="4" xr3:uid="{096C0A4A-CA90-4BDA-9860-B8A932C15551}" name="HpShopProb"/>
+    <tableColumn id="5" xr3:uid="{1669416B-FD1E-4E26-948D-890FA7ED0BCE}" name="EnemyHpIncreasePer"/>
+    <tableColumn id="12" xr3:uid="{F8FB92ED-5F56-427E-8690-525A35B83B8A}" name="ItemDropId"/>
+    <tableColumn id="6" xr3:uid="{04994298-8637-440C-98D6-0A3BA4CA06C2}" name="HpShopDropId"/>
+    <tableColumn id="7" xr3:uid="{422D6934-436C-4758-AD82-31C302716383}" name="GoldShopDropId"/>
+    <tableColumn id="8" xr3:uid="{AA5702FD-CF07-4418-8B01-CBB3B65A6B4E}" name="BossDropId"/>
+    <tableColumn id="9" xr3:uid="{8CA8549A-F3AD-4171-8856-20565743500A}" name="ChoiceDropId"/>
+    <tableColumn id="11" xr3:uid="{44135D1F-69EA-4B08-839B-87F2447E42A7}" name="WeaponDropId"/>
+    <tableColumn id="13" xr3:uid="{6780BB3E-C27F-44AC-8340-63072D3EDC57}" name="#드랍테이블1" dataDxfId="5">
       <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[ItemDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{8407124D-90F5-43DB-A88C-EC6CD44A4128}" name="#드랍테이블2" dataDxfId="4">
+    <tableColumn id="14" xr3:uid="{3FF3BC91-AD20-4D7F-A676-8B4108B14833}" name="#드랍테이블2" dataDxfId="4">
       <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[HpShopDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{948C5737-8E31-44F8-8005-E3ACA79A9B01}" name="#드랍테이블3" dataDxfId="3">
+    <tableColumn id="15" xr3:uid="{17A636DE-5408-4BF2-9CF5-EF07F383833D}" name="#드랍테이블3" dataDxfId="3">
       <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[GoldShopDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{C1E07277-4420-4251-8373-D7D8079D2308}" name="#드랍테이블4" dataDxfId="2">
+    <tableColumn id="16" xr3:uid="{A81811AF-51AB-4E3C-92AF-E5ECC96055DE}" name="#드랍테이블4" dataDxfId="2">
       <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[BossDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{44CCF276-4C45-4C96-B103-21965993F56B}" name="#드랍테이블5" dataDxfId="1">
+    <tableColumn id="17" xr3:uid="{15FBB306-AA58-4A90-B081-6F741651F1E1}" name="#드랍테이블5" dataDxfId="1">
       <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[ChoiceDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{06E22644-CFA2-485E-B6D3-62795AE72439}" name="#드랍테이블6" dataDxfId="0">
+    <tableColumn id="18" xr3:uid="{B2766FAB-EBA5-4484-AF40-898A93DF4426}" name="#드랍테이블6" dataDxfId="0">
       <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[WeaponDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -768,7 +768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3572BCCA-8CDD-4488-AAE9-05E5D46A008D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E9EC110-674D-4EA2-986D-39D27D12684B}">
   <sheetPr codeName="Sheet8">
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/ProductialMapGameData.xlsx
+++ b/_GameData/ProductialMapGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C371FA3-4C44-42CB-A61A-E9F6C74E4998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F24BF2A3-C685-4A8A-8989-29DFBDB8FB9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C39A60F5-3E5B-403C-93E3-DD94FC26C0D0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C5F45BAC-2548-419A-AF32-BFA869C5C9CA}"/>
   </bookViews>
   <sheets>
     <sheet name="ProductialMapGameData" sheetId="1" r:id="rId1"/>
@@ -369,7 +369,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{40BE37AE-C4BC-434D-8082-5D28050A83F3}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{C6B51BC0-A781-4FF7-B542-981901C3E2E0}">
       <tableStyleElement type="wholeTable" dxfId="11"/>
       <tableStyleElement type="headerRow" dxfId="10"/>
       <tableStyleElement type="firstRowStripe" dxfId="9"/>
@@ -434,37 +434,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB29474C-D6E8-4286-9DE6-306294B68D95}" name="ProductialTable" displayName="ProductialTable" ref="B2:S4" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4C8D35B0-1FB0-481A-A5BA-2554355C9AA1}" name="ProductialTable" displayName="ProductialTable" ref="B2:S4" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="B2:S4" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{ADEBF241-62AC-4E1D-98FC-F90ABD9255B6}" name="Index"/>
-    <tableColumn id="10" xr3:uid="{434D5140-C136-4867-9345-FE208499AAFF}" name="#이름" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{C9E8C33B-854D-4A2E-9F0E-01B498EE896D}" name="MaxRoomValue"/>
-    <tableColumn id="3" xr3:uid="{6CD0A891-E26A-4CF4-91D1-E5ED1082D3A9}" name="GoldShopProb"/>
-    <tableColumn id="4" xr3:uid="{096C0A4A-CA90-4BDA-9860-B8A932C15551}" name="HpShopProb"/>
-    <tableColumn id="5" xr3:uid="{1669416B-FD1E-4E26-948D-890FA7ED0BCE}" name="EnemyHpIncreasePer"/>
-    <tableColumn id="12" xr3:uid="{F8FB92ED-5F56-427E-8690-525A35B83B8A}" name="ItemDropId"/>
-    <tableColumn id="6" xr3:uid="{04994298-8637-440C-98D6-0A3BA4CA06C2}" name="HpShopDropId"/>
-    <tableColumn id="7" xr3:uid="{422D6934-436C-4758-AD82-31C302716383}" name="GoldShopDropId"/>
-    <tableColumn id="8" xr3:uid="{AA5702FD-CF07-4418-8B01-CBB3B65A6B4E}" name="BossDropId"/>
-    <tableColumn id="9" xr3:uid="{8CA8549A-F3AD-4171-8856-20565743500A}" name="ChoiceDropId"/>
-    <tableColumn id="11" xr3:uid="{44135D1F-69EA-4B08-839B-87F2447E42A7}" name="WeaponDropId"/>
-    <tableColumn id="13" xr3:uid="{6780BB3E-C27F-44AC-8340-63072D3EDC57}" name="#드랍테이블1" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{369941E1-8ECE-4100-9CD1-05DED8340D42}" name="Index"/>
+    <tableColumn id="10" xr3:uid="{15B5C2EA-0904-48FC-BDF8-D0ECAE8C6D52}" name="#이름" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{6262798A-DC7B-4CA1-935C-07E993B59674}" name="MaxRoomValue"/>
+    <tableColumn id="3" xr3:uid="{E9D1BECB-8155-4FA3-9D57-57203CE20F99}" name="GoldShopProb"/>
+    <tableColumn id="4" xr3:uid="{6FB8D7B2-9157-4755-B176-52A7F10C5267}" name="HpShopProb"/>
+    <tableColumn id="5" xr3:uid="{072218D2-BB06-481D-BC2A-9A45A229DDC0}" name="EnemyHpIncreasePer"/>
+    <tableColumn id="12" xr3:uid="{E2B8D36E-FAF1-4083-BCA2-6DC140631D8E}" name="ItemDropId"/>
+    <tableColumn id="6" xr3:uid="{4A0C39DF-CFC1-4E0D-BF19-41E28B3E4B8A}" name="HpShopDropId"/>
+    <tableColumn id="7" xr3:uid="{226E4451-2928-440A-B693-B95051D0A938}" name="GoldShopDropId"/>
+    <tableColumn id="8" xr3:uid="{653D15B9-CED3-4019-BD1E-8C31F1832C29}" name="BossDropId"/>
+    <tableColumn id="9" xr3:uid="{14715EA2-7AB1-4A1E-AF30-CC32E613AA69}" name="ChoiceDropId"/>
+    <tableColumn id="11" xr3:uid="{46C56D9F-A8C9-491B-A0B0-43D83BDBC56C}" name="WeaponDropId"/>
+    <tableColumn id="13" xr3:uid="{10446D29-C3CA-4EE2-89F5-5D182EB273CC}" name="#드랍테이블1" dataDxfId="5">
       <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[ItemDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{3FF3BC91-AD20-4D7F-A676-8B4108B14833}" name="#드랍테이블2" dataDxfId="4">
+    <tableColumn id="14" xr3:uid="{E757552A-1BD9-4760-ABBD-FAD1B1E00EBF}" name="#드랍테이블2" dataDxfId="4">
       <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[HpShopDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{17A636DE-5408-4BF2-9CF5-EF07F383833D}" name="#드랍테이블3" dataDxfId="3">
+    <tableColumn id="15" xr3:uid="{9623CED4-3721-4791-8AE1-79EC6BF44C24}" name="#드랍테이블3" dataDxfId="3">
       <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[GoldShopDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{A81811AF-51AB-4E3C-92AF-E5ECC96055DE}" name="#드랍테이블4" dataDxfId="2">
+    <tableColumn id="16" xr3:uid="{C3E6CD98-12A7-4E61-A01A-96CDC2813722}" name="#드랍테이블4" dataDxfId="2">
       <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[BossDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{15FBB306-AA58-4A90-B081-6F741651F1E1}" name="#드랍테이블5" dataDxfId="1">
+    <tableColumn id="17" xr3:uid="{2CF11E99-CD4C-47FC-8038-ADD8608476A4}" name="#드랍테이블5" dataDxfId="1">
       <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[ChoiceDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{B2766FAB-EBA5-4484-AF40-898A93DF4426}" name="#드랍테이블6" dataDxfId="0">
+    <tableColumn id="18" xr3:uid="{670BC41E-0B36-4EA8-8137-8D85054FEA01}" name="#드랍테이블6" dataDxfId="0">
       <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[WeaponDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -768,7 +768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E9EC110-674D-4EA2-986D-39D27D12684B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C15FAA04-BF51-4CF3-8168-72985A60A943}">
   <sheetPr codeName="Sheet8">
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/ProductialMapGameData.xlsx
+++ b/_GameData/ProductialMapGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F24BF2A3-C685-4A8A-8989-29DFBDB8FB9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F057052-4B89-4D32-BBA3-AC14471A6ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C5F45BAC-2548-419A-AF32-BFA869C5C9CA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DC379E6C-18BA-44BC-A6F5-C588C6A6BF95}"/>
   </bookViews>
   <sheets>
     <sheet name="ProductialMapGameData" sheetId="1" r:id="rId1"/>
@@ -369,7 +369,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{C6B51BC0-A781-4FF7-B542-981901C3E2E0}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{6705EA13-5CCB-4869-A4FE-E14850AE0210}">
       <tableStyleElement type="wholeTable" dxfId="11"/>
       <tableStyleElement type="headerRow" dxfId="10"/>
       <tableStyleElement type="firstRowStripe" dxfId="9"/>
@@ -434,37 +434,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4C8D35B0-1FB0-481A-A5BA-2554355C9AA1}" name="ProductialTable" displayName="ProductialTable" ref="B2:S4" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BDF3D85B-9747-4C0E-94BA-03A6D34DC23F}" name="ProductialTable" displayName="ProductialTable" ref="B2:S4" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="B2:S4" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{369941E1-8ECE-4100-9CD1-05DED8340D42}" name="Index"/>
-    <tableColumn id="10" xr3:uid="{15B5C2EA-0904-48FC-BDF8-D0ECAE8C6D52}" name="#이름" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{6262798A-DC7B-4CA1-935C-07E993B59674}" name="MaxRoomValue"/>
-    <tableColumn id="3" xr3:uid="{E9D1BECB-8155-4FA3-9D57-57203CE20F99}" name="GoldShopProb"/>
-    <tableColumn id="4" xr3:uid="{6FB8D7B2-9157-4755-B176-52A7F10C5267}" name="HpShopProb"/>
-    <tableColumn id="5" xr3:uid="{072218D2-BB06-481D-BC2A-9A45A229DDC0}" name="EnemyHpIncreasePer"/>
-    <tableColumn id="12" xr3:uid="{E2B8D36E-FAF1-4083-BCA2-6DC140631D8E}" name="ItemDropId"/>
-    <tableColumn id="6" xr3:uid="{4A0C39DF-CFC1-4E0D-BF19-41E28B3E4B8A}" name="HpShopDropId"/>
-    <tableColumn id="7" xr3:uid="{226E4451-2928-440A-B693-B95051D0A938}" name="GoldShopDropId"/>
-    <tableColumn id="8" xr3:uid="{653D15B9-CED3-4019-BD1E-8C31F1832C29}" name="BossDropId"/>
-    <tableColumn id="9" xr3:uid="{14715EA2-7AB1-4A1E-AF30-CC32E613AA69}" name="ChoiceDropId"/>
-    <tableColumn id="11" xr3:uid="{46C56D9F-A8C9-491B-A0B0-43D83BDBC56C}" name="WeaponDropId"/>
-    <tableColumn id="13" xr3:uid="{10446D29-C3CA-4EE2-89F5-5D182EB273CC}" name="#드랍테이블1" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{708C656C-969B-4CB3-A559-0A0DB2ADA151}" name="Index"/>
+    <tableColumn id="10" xr3:uid="{DFB98947-A7F0-4241-A355-81A9D6333C2F}" name="#이름" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{67759D35-5B1C-4DF6-916A-CFE2004679E4}" name="MaxRoomValue"/>
+    <tableColumn id="3" xr3:uid="{F85C0022-B15E-44D9-A11B-50B920981FB6}" name="GoldShopProb"/>
+    <tableColumn id="4" xr3:uid="{7DD05C05-499F-4A1D-9AA2-83AA78B68609}" name="HpShopProb"/>
+    <tableColumn id="5" xr3:uid="{0B618286-834E-4556-8830-DA4FF3E94304}" name="EnemyHpIncreasePer"/>
+    <tableColumn id="12" xr3:uid="{A5D8E9C3-83C1-4D77-A0F2-DFCF18733B8B}" name="ItemDropId"/>
+    <tableColumn id="6" xr3:uid="{2C24548F-7876-4ABB-B325-9A1097A75D33}" name="HpShopDropId"/>
+    <tableColumn id="7" xr3:uid="{68A974AE-041E-4460-B7C4-AB9973871C6A}" name="GoldShopDropId"/>
+    <tableColumn id="8" xr3:uid="{81D45B72-E1EB-454F-9646-3798762CB2A4}" name="BossDropId"/>
+    <tableColumn id="9" xr3:uid="{1563E237-CA9D-4071-B80A-82F631FE6665}" name="ChoiceDropId"/>
+    <tableColumn id="11" xr3:uid="{47DEA941-5DE6-439C-B8A5-866056D7EEC9}" name="WeaponDropId"/>
+    <tableColumn id="13" xr3:uid="{3449A9B0-2C27-43BF-94F5-8984CD096E62}" name="#드랍테이블1" dataDxfId="5">
       <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[ItemDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{E757552A-1BD9-4760-ABBD-FAD1B1E00EBF}" name="#드랍테이블2" dataDxfId="4">
+    <tableColumn id="14" xr3:uid="{6353D652-A239-40A9-9B05-35651EF0439C}" name="#드랍테이블2" dataDxfId="4">
       <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[HpShopDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{9623CED4-3721-4791-8AE1-79EC6BF44C24}" name="#드랍테이블3" dataDxfId="3">
+    <tableColumn id="15" xr3:uid="{3B64CCA4-0B33-42F4-BB4F-32D54602CA80}" name="#드랍테이블3" dataDxfId="3">
       <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[GoldShopDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{C3E6CD98-12A7-4E61-A01A-96CDC2813722}" name="#드랍테이블4" dataDxfId="2">
+    <tableColumn id="16" xr3:uid="{25C49B1F-869C-41AA-895E-9EBC8255A2AC}" name="#드랍테이블4" dataDxfId="2">
       <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[BossDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{2CF11E99-CD4C-47FC-8038-ADD8608476A4}" name="#드랍테이블5" dataDxfId="1">
+    <tableColumn id="17" xr3:uid="{CAEF5174-381C-4EB3-9207-24D3CD98A939}" name="#드랍테이블5" dataDxfId="1">
       <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[ChoiceDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{670BC41E-0B36-4EA8-8137-8D85054FEA01}" name="#드랍테이블6" dataDxfId="0">
+    <tableColumn id="18" xr3:uid="{3B526329-E88B-4286-8FF2-A3BC70A0F71A}" name="#드랍테이블6" dataDxfId="0">
       <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[WeaponDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -768,7 +768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C15FAA04-BF51-4CF3-8168-72985A60A943}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C1D93ED-6A40-4AFA-903C-01CD7AE9FDF4}">
   <sheetPr codeName="Sheet8">
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/ProductialMapGameData.xlsx
+++ b/_GameData/ProductialMapGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F057052-4B89-4D32-BBA3-AC14471A6ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3297ED1-C37C-4058-A5CF-1DFB27B81742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DC379E6C-18BA-44BC-A6F5-C588C6A6BF95}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A5ADD4A-5F73-4B50-97C2-AC479152CBBF}"/>
   </bookViews>
   <sheets>
     <sheet name="ProductialMapGameData" sheetId="1" r:id="rId1"/>
@@ -369,7 +369,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{6705EA13-5CCB-4869-A4FE-E14850AE0210}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{952353A2-5BE9-46DF-B430-E63685671CD5}">
       <tableStyleElement type="wholeTable" dxfId="11"/>
       <tableStyleElement type="headerRow" dxfId="10"/>
       <tableStyleElement type="firstRowStripe" dxfId="9"/>
@@ -434,37 +434,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BDF3D85B-9747-4C0E-94BA-03A6D34DC23F}" name="ProductialTable" displayName="ProductialTable" ref="B2:S4" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4B65CF6C-9764-4FD4-A4C2-D3F047A7C53E}" name="ProductialTable" displayName="ProductialTable" ref="B2:S4" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="B2:S4" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{708C656C-969B-4CB3-A559-0A0DB2ADA151}" name="Index"/>
-    <tableColumn id="10" xr3:uid="{DFB98947-A7F0-4241-A355-81A9D6333C2F}" name="#이름" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{67759D35-5B1C-4DF6-916A-CFE2004679E4}" name="MaxRoomValue"/>
-    <tableColumn id="3" xr3:uid="{F85C0022-B15E-44D9-A11B-50B920981FB6}" name="GoldShopProb"/>
-    <tableColumn id="4" xr3:uid="{7DD05C05-499F-4A1D-9AA2-83AA78B68609}" name="HpShopProb"/>
-    <tableColumn id="5" xr3:uid="{0B618286-834E-4556-8830-DA4FF3E94304}" name="EnemyHpIncreasePer"/>
-    <tableColumn id="12" xr3:uid="{A5D8E9C3-83C1-4D77-A0F2-DFCF18733B8B}" name="ItemDropId"/>
-    <tableColumn id="6" xr3:uid="{2C24548F-7876-4ABB-B325-9A1097A75D33}" name="HpShopDropId"/>
-    <tableColumn id="7" xr3:uid="{68A974AE-041E-4460-B7C4-AB9973871C6A}" name="GoldShopDropId"/>
-    <tableColumn id="8" xr3:uid="{81D45B72-E1EB-454F-9646-3798762CB2A4}" name="BossDropId"/>
-    <tableColumn id="9" xr3:uid="{1563E237-CA9D-4071-B80A-82F631FE6665}" name="ChoiceDropId"/>
-    <tableColumn id="11" xr3:uid="{47DEA941-5DE6-439C-B8A5-866056D7EEC9}" name="WeaponDropId"/>
-    <tableColumn id="13" xr3:uid="{3449A9B0-2C27-43BF-94F5-8984CD096E62}" name="#드랍테이블1" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{2385486F-A7B0-430F-A786-B0F67925093A}" name="Index"/>
+    <tableColumn id="10" xr3:uid="{EE9F1AC5-005C-406D-9AF5-5DD549432B41}" name="#이름" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{E22C9C11-163A-478B-B785-3A95D775A648}" name="MaxRoomValue"/>
+    <tableColumn id="3" xr3:uid="{17E9276D-D018-4FF7-A8D5-92B2C4DAFE16}" name="GoldShopProb"/>
+    <tableColumn id="4" xr3:uid="{AA13AB4B-A003-47DE-950F-ED2C9A7271CE}" name="HpShopProb"/>
+    <tableColumn id="5" xr3:uid="{259F28CB-85F3-4402-ACE9-A729F29D678F}" name="EnemyHpIncreasePer"/>
+    <tableColumn id="12" xr3:uid="{A224DFEC-3DA1-47EE-85E6-58B9338B7957}" name="ItemDropId"/>
+    <tableColumn id="6" xr3:uid="{41325137-1AE2-4C9A-83DD-FD17A3836992}" name="HpShopDropId"/>
+    <tableColumn id="7" xr3:uid="{4BEC2BB7-AF4F-456F-BF5E-F55D2FD46524}" name="GoldShopDropId"/>
+    <tableColumn id="8" xr3:uid="{EE429AD8-994C-4A6F-919D-C8EDEF65DD54}" name="BossDropId"/>
+    <tableColumn id="9" xr3:uid="{8ED5B462-9A2B-4DD9-ABAC-43F4EAC2E06C}" name="ChoiceDropId"/>
+    <tableColumn id="11" xr3:uid="{BE08B05C-474F-48B0-830E-E10136D4ED74}" name="WeaponDropId"/>
+    <tableColumn id="13" xr3:uid="{B204CD4E-FB15-485F-9B7A-E077ABBE24D1}" name="#드랍테이블1" dataDxfId="5">
       <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[ItemDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{6353D652-A239-40A9-9B05-35651EF0439C}" name="#드랍테이블2" dataDxfId="4">
+    <tableColumn id="14" xr3:uid="{CF472E9D-5A5E-4E7F-82A2-801B0D69C827}" name="#드랍테이블2" dataDxfId="4">
       <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[HpShopDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{3B64CCA4-0B33-42F4-BB4F-32D54602CA80}" name="#드랍테이블3" dataDxfId="3">
+    <tableColumn id="15" xr3:uid="{57D75111-CCD5-4984-9AA4-26E42B7F53C1}" name="#드랍테이블3" dataDxfId="3">
       <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[GoldShopDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{25C49B1F-869C-41AA-895E-9EBC8255A2AC}" name="#드랍테이블4" dataDxfId="2">
+    <tableColumn id="16" xr3:uid="{E65E2B55-B0D8-4963-9F84-556D64EC8077}" name="#드랍테이블4" dataDxfId="2">
       <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[BossDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{CAEF5174-381C-4EB3-9207-24D3CD98A939}" name="#드랍테이블5" dataDxfId="1">
+    <tableColumn id="17" xr3:uid="{DEF93F35-EF41-43EC-8301-EE2DB7F58117}" name="#드랍테이블5" dataDxfId="1">
       <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[ChoiceDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{3B526329-E88B-4286-8FF2-A3BC70A0F71A}" name="#드랍테이블6" dataDxfId="0">
+    <tableColumn id="18" xr3:uid="{1D0A786E-241E-4085-AFA3-4484D97BB028}" name="#드랍테이블6" dataDxfId="0">
       <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[WeaponDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -768,7 +768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C1D93ED-6A40-4AFA-903C-01CD7AE9FDF4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0253F53F-5CC8-4F8C-8AF7-5C84DEF04B66}">
   <sheetPr codeName="Sheet8">
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/ProductialMapGameData.xlsx
+++ b/_GameData/ProductialMapGameData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3297ED1-C37C-4058-A5CF-1DFB27B81742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB40816E-EAD1-46AF-B595-A597E02C072B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A5ADD4A-5F73-4B50-97C2-AC479152CBBF}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DC788DC8-0605-48E4-9D50-45B3153263DB}"/>
   </bookViews>
   <sheets>
     <sheet name="ProductialMapGameData" sheetId="1" r:id="rId1"/>
@@ -369,7 +369,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{952353A2-5BE9-46DF-B430-E63685671CD5}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{9C3D2EEE-C46B-426C-BD7E-8230F12D5123}">
       <tableStyleElement type="wholeTable" dxfId="11"/>
       <tableStyleElement type="headerRow" dxfId="10"/>
       <tableStyleElement type="firstRowStripe" dxfId="9"/>
@@ -434,37 +434,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4B65CF6C-9764-4FD4-A4C2-D3F047A7C53E}" name="ProductialTable" displayName="ProductialTable" ref="B2:S4" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{29C188B8-6FB9-4FC1-88FA-FD6E8D1C69EC}" name="ProductialTable" displayName="ProductialTable" ref="B2:S4" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="B2:S4" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{2385486F-A7B0-430F-A786-B0F67925093A}" name="Index"/>
-    <tableColumn id="10" xr3:uid="{EE9F1AC5-005C-406D-9AF5-5DD549432B41}" name="#이름" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{E22C9C11-163A-478B-B785-3A95D775A648}" name="MaxRoomValue"/>
-    <tableColumn id="3" xr3:uid="{17E9276D-D018-4FF7-A8D5-92B2C4DAFE16}" name="GoldShopProb"/>
-    <tableColumn id="4" xr3:uid="{AA13AB4B-A003-47DE-950F-ED2C9A7271CE}" name="HpShopProb"/>
-    <tableColumn id="5" xr3:uid="{259F28CB-85F3-4402-ACE9-A729F29D678F}" name="EnemyHpIncreasePer"/>
-    <tableColumn id="12" xr3:uid="{A224DFEC-3DA1-47EE-85E6-58B9338B7957}" name="ItemDropId"/>
-    <tableColumn id="6" xr3:uid="{41325137-1AE2-4C9A-83DD-FD17A3836992}" name="HpShopDropId"/>
-    <tableColumn id="7" xr3:uid="{4BEC2BB7-AF4F-456F-BF5E-F55D2FD46524}" name="GoldShopDropId"/>
-    <tableColumn id="8" xr3:uid="{EE429AD8-994C-4A6F-919D-C8EDEF65DD54}" name="BossDropId"/>
-    <tableColumn id="9" xr3:uid="{8ED5B462-9A2B-4DD9-ABAC-43F4EAC2E06C}" name="ChoiceDropId"/>
-    <tableColumn id="11" xr3:uid="{BE08B05C-474F-48B0-830E-E10136D4ED74}" name="WeaponDropId"/>
-    <tableColumn id="13" xr3:uid="{B204CD4E-FB15-485F-9B7A-E077ABBE24D1}" name="#드랍테이블1" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{11C36560-A406-4524-9734-B991EC638BE0}" name="Index"/>
+    <tableColumn id="10" xr3:uid="{136B31F3-AAFE-46D4-92AF-270B1434FAC9}" name="#이름" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{75752A8D-2129-4B86-9434-32F694636337}" name="MaxRoomValue"/>
+    <tableColumn id="3" xr3:uid="{8327AFFD-9F20-44FE-8187-CEBFCB8594E3}" name="GoldShopProb"/>
+    <tableColumn id="4" xr3:uid="{76CE42FA-E4BD-4D36-B42F-80BE4DC24F0B}" name="HpShopProb"/>
+    <tableColumn id="5" xr3:uid="{A4F25E1B-ABF2-4DD3-B73C-AD17FF205BC0}" name="EnemyHpIncreasePer"/>
+    <tableColumn id="12" xr3:uid="{F8D37690-7315-472D-95F9-D27502C531DF}" name="ItemDropId"/>
+    <tableColumn id="6" xr3:uid="{DEE9A194-F457-4EA8-B355-9226F67FF009}" name="HpShopDropId"/>
+    <tableColumn id="7" xr3:uid="{FCFBAB60-68F9-4EE6-A068-E6FB95910CBA}" name="GoldShopDropId"/>
+    <tableColumn id="8" xr3:uid="{7ACBFEA3-C6D9-4395-9322-A63C5466DADA}" name="BossDropId"/>
+    <tableColumn id="9" xr3:uid="{158A8FBA-C7AB-4203-9BCF-48C9BA0318EA}" name="ChoiceDropId"/>
+    <tableColumn id="11" xr3:uid="{98D7AA38-330B-4E27-9FF1-7B66527D294D}" name="WeaponDropId"/>
+    <tableColumn id="13" xr3:uid="{06054A77-09D0-413A-AE8E-EEB245565BCF}" name="#드랍테이블1" dataDxfId="5">
       <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[ItemDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{CF472E9D-5A5E-4E7F-82A2-801B0D69C827}" name="#드랍테이블2" dataDxfId="4">
+    <tableColumn id="14" xr3:uid="{A073A4D4-F54E-49B1-8334-34D5A9D1B856}" name="#드랍테이블2" dataDxfId="4">
       <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[HpShopDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{57D75111-CCD5-4984-9AA4-26E42B7F53C1}" name="#드랍테이블3" dataDxfId="3">
+    <tableColumn id="15" xr3:uid="{5DC19E54-A7E7-4C93-B0F8-2BAF03DE036E}" name="#드랍테이블3" dataDxfId="3">
       <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[GoldShopDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{E65E2B55-B0D8-4963-9F84-556D64EC8077}" name="#드랍테이블4" dataDxfId="2">
+    <tableColumn id="16" xr3:uid="{4B3ECA69-B7AE-43CC-8FC0-743032351167}" name="#드랍테이블4" dataDxfId="2">
       <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[BossDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{DEF93F35-EF41-43EC-8301-EE2DB7F58117}" name="#드랍테이블5" dataDxfId="1">
+    <tableColumn id="17" xr3:uid="{60DDBD57-DCDD-461C-AE22-0DF2FDDF7908}" name="#드랍테이블5" dataDxfId="1">
       <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[ChoiceDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{1D0A786E-241E-4085-AFA3-4484D97BB028}" name="#드랍테이블6" dataDxfId="0">
+    <tableColumn id="18" xr3:uid="{33438415-6A31-4E6B-8780-1AE4852CE474}" name="#드랍테이블6" dataDxfId="0">
       <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[WeaponDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -768,7 +768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0253F53F-5CC8-4F8C-8AF7-5C84DEF04B66}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{940C9CA2-E403-4763-8E13-285E2DB700F4}">
   <sheetPr codeName="Sheet8">
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/ProductialMapGameData.xlsx
+++ b/_GameData/ProductialMapGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB40816E-EAD1-46AF-B595-A597E02C072B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFD9CCFB-92A5-482E-9609-08FFA6EC8969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DC788DC8-0605-48E4-9D50-45B3153263DB}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{976AE7AE-0E0E-463E-9EBA-3F233451D23E}"/>
   </bookViews>
   <sheets>
     <sheet name="ProductialMapGameData" sheetId="1" r:id="rId1"/>
@@ -369,7 +369,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{9C3D2EEE-C46B-426C-BD7E-8230F12D5123}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{A24FADAC-8D35-4408-B54C-B942092615D1}">
       <tableStyleElement type="wholeTable" dxfId="11"/>
       <tableStyleElement type="headerRow" dxfId="10"/>
       <tableStyleElement type="firstRowStripe" dxfId="9"/>
@@ -434,37 +434,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{29C188B8-6FB9-4FC1-88FA-FD6E8D1C69EC}" name="ProductialTable" displayName="ProductialTable" ref="B2:S4" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A44BF33F-2466-47C1-9029-25B73B70360D}" name="ProductialTable" displayName="ProductialTable" ref="B2:S4" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="B2:S4" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{11C36560-A406-4524-9734-B991EC638BE0}" name="Index"/>
-    <tableColumn id="10" xr3:uid="{136B31F3-AAFE-46D4-92AF-270B1434FAC9}" name="#이름" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{75752A8D-2129-4B86-9434-32F694636337}" name="MaxRoomValue"/>
-    <tableColumn id="3" xr3:uid="{8327AFFD-9F20-44FE-8187-CEBFCB8594E3}" name="GoldShopProb"/>
-    <tableColumn id="4" xr3:uid="{76CE42FA-E4BD-4D36-B42F-80BE4DC24F0B}" name="HpShopProb"/>
-    <tableColumn id="5" xr3:uid="{A4F25E1B-ABF2-4DD3-B73C-AD17FF205BC0}" name="EnemyHpIncreasePer"/>
-    <tableColumn id="12" xr3:uid="{F8D37690-7315-472D-95F9-D27502C531DF}" name="ItemDropId"/>
-    <tableColumn id="6" xr3:uid="{DEE9A194-F457-4EA8-B355-9226F67FF009}" name="HpShopDropId"/>
-    <tableColumn id="7" xr3:uid="{FCFBAB60-68F9-4EE6-A068-E6FB95910CBA}" name="GoldShopDropId"/>
-    <tableColumn id="8" xr3:uid="{7ACBFEA3-C6D9-4395-9322-A63C5466DADA}" name="BossDropId"/>
-    <tableColumn id="9" xr3:uid="{158A8FBA-C7AB-4203-9BCF-48C9BA0318EA}" name="ChoiceDropId"/>
-    <tableColumn id="11" xr3:uid="{98D7AA38-330B-4E27-9FF1-7B66527D294D}" name="WeaponDropId"/>
-    <tableColumn id="13" xr3:uid="{06054A77-09D0-413A-AE8E-EEB245565BCF}" name="#드랍테이블1" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{3C874289-63A2-49D8-8013-C598E5D4D738}" name="Index"/>
+    <tableColumn id="10" xr3:uid="{D6764F95-0B69-420A-84BA-870354242A6C}" name="#이름" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{4E20798C-FF86-445F-9DE5-14316942BB80}" name="MaxRoomValue"/>
+    <tableColumn id="3" xr3:uid="{6968D1EE-07CC-4E3D-85FC-D7404D6199EA}" name="GoldShopProb"/>
+    <tableColumn id="4" xr3:uid="{14645B8B-60DF-4A28-9D15-F487E040520C}" name="HpShopProb"/>
+    <tableColumn id="5" xr3:uid="{83D2A876-FF7E-4EE3-895C-E40C9B9DB717}" name="EnemyHpIncreasePer"/>
+    <tableColumn id="12" xr3:uid="{08438A44-18A0-4993-B645-59E12C8E5380}" name="ItemDropId"/>
+    <tableColumn id="6" xr3:uid="{86EF0CBF-7034-4B9B-8D06-6190B030BF96}" name="HpShopDropId"/>
+    <tableColumn id="7" xr3:uid="{39A0D3B1-A0EB-45EE-B4AE-A991A2728DE7}" name="GoldShopDropId"/>
+    <tableColumn id="8" xr3:uid="{4FDE3B84-0AE4-441D-B88C-FACA0C7181A4}" name="BossDropId"/>
+    <tableColumn id="9" xr3:uid="{E609460E-351C-4C23-9332-918A0F8AD83F}" name="ChoiceDropId"/>
+    <tableColumn id="11" xr3:uid="{891311F5-059F-4B37-890B-6714943C8144}" name="WeaponDropId"/>
+    <tableColumn id="13" xr3:uid="{A34BAFF4-149B-4F75-86A5-6D47B673A5FD}" name="#드랍테이블1" dataDxfId="5">
       <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[ItemDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{A073A4D4-F54E-49B1-8334-34D5A9D1B856}" name="#드랍테이블2" dataDxfId="4">
+    <tableColumn id="14" xr3:uid="{2979676B-5A2C-4155-8DDC-C4650320E80D}" name="#드랍테이블2" dataDxfId="4">
       <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[HpShopDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{5DC19E54-A7E7-4C93-B0F8-2BAF03DE036E}" name="#드랍테이블3" dataDxfId="3">
+    <tableColumn id="15" xr3:uid="{E0079F16-BC61-45D0-A07D-95A7A06CC80A}" name="#드랍테이블3" dataDxfId="3">
       <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[GoldShopDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{4B3ECA69-B7AE-43CC-8FC0-743032351167}" name="#드랍테이블4" dataDxfId="2">
+    <tableColumn id="16" xr3:uid="{3F2E6DCC-4479-4390-B2F6-577EC393E6C1}" name="#드랍테이블4" dataDxfId="2">
       <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[BossDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{60DDBD57-DCDD-461C-AE22-0DF2FDDF7908}" name="#드랍테이블5" dataDxfId="1">
+    <tableColumn id="17" xr3:uid="{5D807797-087C-47F1-8081-C3C62A872D6D}" name="#드랍테이블5" dataDxfId="1">
       <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[ChoiceDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{33438415-6A31-4E6B-8780-1AE4852CE474}" name="#드랍테이블6" dataDxfId="0">
+    <tableColumn id="18" xr3:uid="{058A421B-F713-4354-B4E5-38C42AC61E82}" name="#드랍테이블6" dataDxfId="0">
       <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[WeaponDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -768,7 +768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{940C9CA2-E403-4763-8E13-285E2DB700F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49C2AB13-2C8D-48D9-BF10-B8606C8CE0A8}">
   <sheetPr codeName="Sheet8">
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/ProductialMapGameData.xlsx
+++ b/_GameData/ProductialMapGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFD9CCFB-92A5-482E-9609-08FFA6EC8969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC0A64F1-56A6-459A-81C5-DBF262F042DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{976AE7AE-0E0E-463E-9EBA-3F233451D23E}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2753B870-7A0C-4878-9D16-775C63C8129B}"/>
   </bookViews>
   <sheets>
     <sheet name="ProductialMapGameData" sheetId="1" r:id="rId1"/>
@@ -369,7 +369,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{A24FADAC-8D35-4408-B54C-B942092615D1}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{7E81C629-09AA-4F62-B79E-8D0538886504}">
       <tableStyleElement type="wholeTable" dxfId="11"/>
       <tableStyleElement type="headerRow" dxfId="10"/>
       <tableStyleElement type="firstRowStripe" dxfId="9"/>
@@ -434,37 +434,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A44BF33F-2466-47C1-9029-25B73B70360D}" name="ProductialTable" displayName="ProductialTable" ref="B2:S4" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{985A83EF-5EC8-4C33-95AE-C5B1E2C2F68E}" name="ProductialTable" displayName="ProductialTable" ref="B2:S4" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="B2:S4" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{3C874289-63A2-49D8-8013-C598E5D4D738}" name="Index"/>
-    <tableColumn id="10" xr3:uid="{D6764F95-0B69-420A-84BA-870354242A6C}" name="#이름" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{4E20798C-FF86-445F-9DE5-14316942BB80}" name="MaxRoomValue"/>
-    <tableColumn id="3" xr3:uid="{6968D1EE-07CC-4E3D-85FC-D7404D6199EA}" name="GoldShopProb"/>
-    <tableColumn id="4" xr3:uid="{14645B8B-60DF-4A28-9D15-F487E040520C}" name="HpShopProb"/>
-    <tableColumn id="5" xr3:uid="{83D2A876-FF7E-4EE3-895C-E40C9B9DB717}" name="EnemyHpIncreasePer"/>
-    <tableColumn id="12" xr3:uid="{08438A44-18A0-4993-B645-59E12C8E5380}" name="ItemDropId"/>
-    <tableColumn id="6" xr3:uid="{86EF0CBF-7034-4B9B-8D06-6190B030BF96}" name="HpShopDropId"/>
-    <tableColumn id="7" xr3:uid="{39A0D3B1-A0EB-45EE-B4AE-A991A2728DE7}" name="GoldShopDropId"/>
-    <tableColumn id="8" xr3:uid="{4FDE3B84-0AE4-441D-B88C-FACA0C7181A4}" name="BossDropId"/>
-    <tableColumn id="9" xr3:uid="{E609460E-351C-4C23-9332-918A0F8AD83F}" name="ChoiceDropId"/>
-    <tableColumn id="11" xr3:uid="{891311F5-059F-4B37-890B-6714943C8144}" name="WeaponDropId"/>
-    <tableColumn id="13" xr3:uid="{A34BAFF4-149B-4F75-86A5-6D47B673A5FD}" name="#드랍테이블1" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{39436EC1-3E1E-42C5-98C3-C32B647899D8}" name="Index"/>
+    <tableColumn id="10" xr3:uid="{B0C224D7-3635-45FC-BFA7-C8600FC0889C}" name="#이름" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{FB1A9C56-57BD-49D3-B779-5191C7B19CA5}" name="MaxRoomValue"/>
+    <tableColumn id="3" xr3:uid="{62523BCD-64EC-4364-98D5-A8E3D7B5413B}" name="GoldShopProb"/>
+    <tableColumn id="4" xr3:uid="{52D7AE38-CB28-42EE-A364-49BA3DD59F0A}" name="HpShopProb"/>
+    <tableColumn id="5" xr3:uid="{59AF11DD-52D7-465E-AC52-94277D0EC9E8}" name="EnemyHpIncreasePer"/>
+    <tableColumn id="12" xr3:uid="{26E705EE-BB60-4EA6-ACE8-EF530837CB7F}" name="ItemDropId"/>
+    <tableColumn id="6" xr3:uid="{F4B5B170-9B96-4D84-A767-4F2842ECE186}" name="HpShopDropId"/>
+    <tableColumn id="7" xr3:uid="{68747FC7-051A-4FD0-815B-D9D8AC9B7F99}" name="GoldShopDropId"/>
+    <tableColumn id="8" xr3:uid="{E8E7A9FD-6AD1-4DE1-B2E0-F9240154B451}" name="BossDropId"/>
+    <tableColumn id="9" xr3:uid="{856F2047-885A-490A-AAE3-7A9ACD19E120}" name="ChoiceDropId"/>
+    <tableColumn id="11" xr3:uid="{2AE20148-0C19-4F9C-BDF3-477915B7518C}" name="WeaponDropId"/>
+    <tableColumn id="13" xr3:uid="{870C6783-4E30-4FE7-A827-5B315FC7A3C2}" name="#드랍테이블1" dataDxfId="5">
       <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[ItemDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{2979676B-5A2C-4155-8DDC-C4650320E80D}" name="#드랍테이블2" dataDxfId="4">
+    <tableColumn id="14" xr3:uid="{73FA5DDF-E430-4955-9568-409D18753919}" name="#드랍테이블2" dataDxfId="4">
       <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[HpShopDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{E0079F16-BC61-45D0-A07D-95A7A06CC80A}" name="#드랍테이블3" dataDxfId="3">
+    <tableColumn id="15" xr3:uid="{8D6E9185-65A7-4D5C-8FF7-3A677C0E998F}" name="#드랍테이블3" dataDxfId="3">
       <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[GoldShopDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{3F2E6DCC-4479-4390-B2F6-577EC393E6C1}" name="#드랍테이블4" dataDxfId="2">
+    <tableColumn id="16" xr3:uid="{B539A935-A2C7-4D99-8044-AE70F1DE484A}" name="#드랍테이블4" dataDxfId="2">
       <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[BossDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{5D807797-087C-47F1-8081-C3C62A872D6D}" name="#드랍테이블5" dataDxfId="1">
+    <tableColumn id="17" xr3:uid="{CD52C34B-1BB1-46F6-9709-6BF037EBFCFB}" name="#드랍테이블5" dataDxfId="1">
       <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[ChoiceDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{058A421B-F713-4354-B4E5-38C42AC61E82}" name="#드랍테이블6" dataDxfId="0">
+    <tableColumn id="18" xr3:uid="{5AF7C032-FBF7-44DC-ABFB-256EA5236AF1}" name="#드랍테이블6" dataDxfId="0">
       <calculatedColumnFormula>INDEX([1]!DropTable['#메모],MATCH(ProductialTable[[#This Row],[WeaponDropId]],[1]!DropTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -768,7 +768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49C2AB13-2C8D-48D9-BF10-B8606C8CE0A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B4361FB-0873-4955-BA0B-41FEBC0EF513}">
   <sheetPr codeName="Sheet8">
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
